--- a/tabelle_1_main.xlsx
+++ b/tabelle_1_main.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="1374">
   <si>
     <t>phrasem_id</t>
   </si>
@@ -707,9 +707,6 @@
   </si>
   <si>
     <t>Ausweichen</t>
-  </si>
-  <si>
-    <t>Nan</t>
   </si>
   <si>
     <t>wie die Katze um den heißen Brei schleichen гэсэн хуучны хэлцээс гаралтай. Муур халуун зутан идэж чадахгүй тойрон гэтэх үйлтэй зүйрлэсэн хэлц үг.</t>
@@ -5693,25 +5690,25 @@
         <v>24</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -5729,22 +5726,22 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>21</v>
@@ -5753,22 +5750,22 @@
         <v>24</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>24</v>
@@ -5789,22 +5786,22 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>21</v>
@@ -5813,25 +5810,25 @@
         <v>24</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -5849,13 +5846,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>135</v>
@@ -5873,25 +5870,25 @@
         <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -5909,19 +5906,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>44</v>
@@ -5933,25 +5930,25 @@
         <v>24</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -5969,49 +5966,49 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -6029,13 +6026,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>19</v>
@@ -6044,34 +6041,34 @@
         <v>199</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -6089,49 +6086,49 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -6149,19 +6146,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>180</v>
@@ -6173,25 +6170,25 @@
         <v>24</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -6209,22 +6206,22 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>21</v>
@@ -6239,19 +6236,19 @@
         <v>24</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -6269,22 +6266,22 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>21</v>
@@ -6299,17 +6296,17 @@
         <v>24</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -6327,13 +6324,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>169</v>
@@ -6342,34 +6339,34 @@
         <v>167</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -6387,22 +6384,22 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>21</v>
@@ -6414,19 +6411,19 @@
         <v>24</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>24</v>
@@ -6447,49 +6444,49 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -6507,49 +6504,49 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -6567,13 +6564,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>135</v>
@@ -6582,7 +6579,7 @@
         <v>65</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>21</v>
@@ -6591,25 +6588,25 @@
         <v>24</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -6627,22 +6624,22 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>21</v>
@@ -6654,19 +6651,19 @@
         <v>24</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>24</v>
@@ -6687,46 +6684,46 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>24</v>
@@ -6747,19 +6744,19 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>168</v>
@@ -6771,25 +6768,25 @@
         <v>24</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -6807,49 +6804,49 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -6867,43 +6864,49 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -6921,13 +6924,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>135</v>
@@ -6936,28 +6939,34 @@
         <v>169</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -6975,43 +6984,49 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>145</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="H42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="J42" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -7029,22 +7044,22 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>21</v>
@@ -7056,19 +7071,19 @@
         <v>24</v>
       </c>
       <c r="J43" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>24</v>
@@ -7089,49 +7104,49 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="O44" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -7149,49 +7164,49 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -7209,49 +7224,49 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H46" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -7269,49 +7284,49 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H47" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -7329,47 +7344,47 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K48" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="O48" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -7387,19 +7402,19 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>124</v>
@@ -7411,25 +7426,25 @@
         <v>24</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K49" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -7447,49 +7462,49 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -7507,49 +7522,49 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" s="1" t="s">
+      <c r="L51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -7567,22 +7582,22 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>21</v>
@@ -7594,22 +7609,22 @@
         <v>24</v>
       </c>
       <c r="J52" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="O52" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -7627,49 +7642,49 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H53" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="L53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -7687,22 +7702,22 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>21</v>
@@ -7714,22 +7729,22 @@
         <v>24</v>
       </c>
       <c r="J54" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="L54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -7747,19 +7762,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>44</v>
@@ -7774,22 +7789,22 @@
         <v>24</v>
       </c>
       <c r="J55" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="L55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M55" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -7807,22 +7822,22 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>21</v>
@@ -7834,22 +7849,22 @@
         <v>24</v>
       </c>
       <c r="J56" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="O56" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -7867,19 +7882,19 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>24</v>
@@ -7888,28 +7903,28 @@
         <v>21</v>
       </c>
       <c r="H57" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K57" s="1" t="s">
+      <c r="L57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="O57" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -7927,19 +7942,19 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>76</v>
@@ -7954,22 +7969,22 @@
         <v>24</v>
       </c>
       <c r="J58" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="O58" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -7987,49 +8002,49 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H59" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
@@ -8047,49 +8062,49 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -8107,49 +8122,49 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="L61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M61" s="1" t="s">
+      <c r="N61" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="O61" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
@@ -8167,19 +8182,19 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>628</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>24</v>
@@ -8194,22 +8209,22 @@
         <v>24</v>
       </c>
       <c r="J62" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="L62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="L62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M62" s="1" t="s">
+      <c r="N62" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="O62" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -8227,19 +8242,19 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>637</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>180</v>
@@ -8248,28 +8263,28 @@
         <v>21</v>
       </c>
       <c r="H63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M63" s="1" t="s">
+      <c r="N63" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="O63" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -8287,49 +8302,49 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M64" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
@@ -8347,19 +8362,19 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>180</v>
@@ -8368,28 +8383,28 @@
         <v>21</v>
       </c>
       <c r="H65" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M65" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="O65" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -8407,22 +8422,22 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>21</v>
@@ -8431,25 +8446,25 @@
         <v>24</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K66" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M66" s="1" t="s">
+      <c r="N66" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="O66" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -8467,19 +8482,19 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>674</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>180</v>
@@ -8488,28 +8503,28 @@
         <v>21</v>
       </c>
       <c r="H67" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K67" s="1" t="s">
+      <c r="L67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="L67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M67" s="1" t="s">
+      <c r="N67" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="O67" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -8527,49 +8542,49 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K68" s="1" t="s">
+      <c r="L68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M68" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="L68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M68" s="1" t="s">
+      <c r="N68" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="O68" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -8587,16 +8602,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>146</v>
@@ -8608,28 +8623,28 @@
         <v>21</v>
       </c>
       <c r="H69" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K69" s="1" t="s">
+      <c r="L69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M69" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="L69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M69" s="1" t="s">
+      <c r="N69" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="O69" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -8647,13 +8662,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>123</v>
@@ -8668,28 +8683,28 @@
         <v>21</v>
       </c>
       <c r="H70" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K70" s="1" t="s">
+      <c r="L70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="L70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M70" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="O70" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -8707,22 +8722,22 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>21</v>
@@ -8734,22 +8749,22 @@
         <v>24</v>
       </c>
       <c r="J71" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="L71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M71" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="L71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M71" s="1" t="s">
+      <c r="N71" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="O71" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -8767,13 +8782,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>66</v>
@@ -8782,7 +8797,7 @@
         <v>24</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>21</v>
@@ -8791,25 +8806,25 @@
         <v>24</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K72" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="L72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
@@ -8827,49 +8842,49 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>727</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H73" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J73" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="L73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="L73" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M73" s="1" t="s">
+      <c r="N73" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="O73" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>733</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -8887,13 +8902,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>736</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>135</v>
@@ -8902,34 +8917,34 @@
         <v>169</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H74" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K74" s="1" t="s">
+      <c r="L74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M74" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="L74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M74" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -8947,19 +8962,19 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>201</v>
@@ -8971,25 +8986,25 @@
         <v>24</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K75" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M75" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="L75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M75" s="1" t="s">
+      <c r="N75" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="O75" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -9007,49 +9022,49 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H76" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J76" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="L76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M76" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="L76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M76" s="1" t="s">
+      <c r="N76" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="O76" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>760</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
@@ -9067,19 +9082,19 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>168</v>
@@ -9094,22 +9109,22 @@
         <v>24</v>
       </c>
       <c r="J77" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="L77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M77" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="L77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M77" s="1" t="s">
+      <c r="N77" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -9127,19 +9142,19 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>773</v>
-      </c>
       <c r="D78" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>24</v>
@@ -9154,22 +9169,22 @@
         <v>24</v>
       </c>
       <c r="J78" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="L78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M78" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="L78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M78" s="1" t="s">
+      <c r="N78" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="O78" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
@@ -9187,22 +9202,22 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>783</v>
-      </c>
       <c r="F79" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>21</v>
@@ -9211,25 +9226,25 @@
         <v>24</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K79" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M79" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M79" s="1" t="s">
+      <c r="N79" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="O79" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>787</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
@@ -9247,13 +9262,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>123</v>
@@ -9268,28 +9283,28 @@
         <v>21</v>
       </c>
       <c r="H80" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M80" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="L80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M80" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="O80" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>795</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
@@ -9307,22 +9322,22 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>801</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>21</v>
@@ -9337,19 +9352,19 @@
         <v>24</v>
       </c>
       <c r="K81" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="O81" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
@@ -9367,16 +9382,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>809</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>145</v>
@@ -9397,19 +9412,19 @@
         <v>24</v>
       </c>
       <c r="K82" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M82" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M82" s="1" t="s">
+      <c r="N82" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="O82" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>813</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -9427,19 +9442,19 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>817</v>
-      </c>
       <c r="E83" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>18</v>
@@ -9448,28 +9463,28 @@
         <v>21</v>
       </c>
       <c r="H83" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K83" s="1" t="s">
+      <c r="L83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M83" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="L83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M83" s="1" t="s">
+      <c r="N83" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="O83" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>823</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
@@ -9487,19 +9502,19 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>826</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>24</v>
@@ -9508,28 +9523,28 @@
         <v>21</v>
       </c>
       <c r="H84" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M84" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M84" s="1" t="s">
+      <c r="N84" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="O84" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -9547,22 +9562,22 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>836</v>
-      </c>
       <c r="F85" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>21</v>
@@ -9574,22 +9589,22 @@
         <v>24</v>
       </c>
       <c r="J85" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="K85" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="L85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M85" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="L85" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M85" s="1" t="s">
+      <c r="N85" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="N85" s="1" t="s">
+      <c r="O85" s="1" t="s">
         <v>840</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>841</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -9607,49 +9622,49 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>845</v>
-      </c>
       <c r="F86" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H86" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K86" s="1" t="s">
+      <c r="L86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M86" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="L86" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M86" s="1" t="s">
+      <c r="N86" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="O86" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>850</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -9667,49 +9682,49 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>855</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H87" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J87" s="1" t="s">
+      <c r="K87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M87" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M87" s="1" t="s">
+      <c r="N87" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="N87" s="1" t="s">
+      <c r="O87" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>860</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -9727,19 +9742,19 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>865</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>180</v>
@@ -9754,22 +9769,22 @@
         <v>24</v>
       </c>
       <c r="J88" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="L88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M88" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="L88" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M88" s="1" t="s">
+      <c r="N88" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="O88" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>870</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -9787,19 +9802,19 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>873</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>24</v>
@@ -9808,28 +9823,28 @@
         <v>21</v>
       </c>
       <c r="H89" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J89" s="1" t="s">
+      <c r="K89" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="L89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M89" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="L89" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M89" s="1" t="s">
+      <c r="N89" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="O89" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>880</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -9847,22 +9862,22 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>886</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>21</v>
@@ -9874,19 +9889,19 @@
         <v>24</v>
       </c>
       <c r="J90" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="K90" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="L90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M90" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="L90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M90" s="1" t="s">
+      <c r="N90" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>890</v>
       </c>
       <c r="O90" s="1" t="s">
         <v>24</v>
@@ -9907,22 +9922,22 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>895</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>21</v>
@@ -9934,22 +9949,22 @@
         <v>24</v>
       </c>
       <c r="J91" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="K91" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="L91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M91" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="L91" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M91" s="1" t="s">
+      <c r="N91" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="O91" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -9967,19 +9982,19 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>44</v>
@@ -9997,19 +10012,19 @@
         <v>24</v>
       </c>
       <c r="K92" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M92" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="L92" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M92" s="1" t="s">
+      <c r="N92" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="O92" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -10027,49 +10042,49 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>915</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H93" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K93" s="1" t="s">
+      <c r="L93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="L93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M93" s="1" t="s">
+      <c r="N93" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="O93" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>920</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
@@ -10087,49 +10102,49 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>924</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H94" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J94" s="1" t="s">
+      <c r="K94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M94" s="1" t="s">
+      <c r="N94" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="O94" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>929</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
@@ -10147,22 +10162,22 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>935</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>21</v>
@@ -10174,22 +10189,22 @@
         <v>24</v>
       </c>
       <c r="J95" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="L95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M95" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="L95" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M95" s="1" t="s">
+      <c r="N95" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="O95" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>940</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
@@ -10207,49 +10222,49 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>945</v>
-      </c>
       <c r="F96" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H96" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M96" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M96" s="1" t="s">
+      <c r="N96" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="O96" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>949</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
@@ -10267,49 +10282,49 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>955</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H97" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M97" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M97" s="1" t="s">
+      <c r="N97" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="O97" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>959</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
@@ -10327,22 +10342,22 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>965</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>21</v>
@@ -10354,22 +10369,22 @@
         <v>24</v>
       </c>
       <c r="J98" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="L98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M98" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="L98" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M98" s="1" t="s">
+      <c r="N98" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="N98" s="1" t="s">
+      <c r="O98" s="1" t="s">
         <v>969</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>970</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
@@ -10387,19 +10402,19 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>974</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>180</v>
@@ -10417,19 +10432,19 @@
         <v>24</v>
       </c>
       <c r="K99" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M99" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="L99" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M99" s="1" t="s">
+      <c r="N99" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="N99" s="1" t="s">
+      <c r="O99" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>978</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
@@ -10447,19 +10462,19 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>983</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>24</v>
@@ -10477,19 +10492,19 @@
         <v>24</v>
       </c>
       <c r="K100" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M100" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="L100" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M100" s="1" t="s">
+      <c r="N100" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="N100" s="1" t="s">
+      <c r="O100" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>987</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -10507,22 +10522,22 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>21</v>
@@ -10534,22 +10549,22 @@
         <v>24</v>
       </c>
       <c r="J101" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="K101" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="K101" s="1" t="s">
+      <c r="L101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M101" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="L101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M101" s="1" t="s">
+      <c r="N101" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="N101" s="1" t="s">
+      <c r="O101" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
@@ -10567,22 +10582,22 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>1001</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>21</v>
@@ -10591,25 +10606,25 @@
         <v>24</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K102" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M102" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="L102" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M102" s="1" t="s">
+      <c r="N102" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="N102" s="1" t="s">
+      <c r="O102" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>1005</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -10627,22 +10642,22 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>1009</v>
-      </c>
       <c r="F103" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>21</v>
@@ -10654,22 +10669,22 @@
         <v>24</v>
       </c>
       <c r="J103" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K103" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="K103" s="1" t="s">
+      <c r="L103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M103" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="L103" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M103" s="1" t="s">
+      <c r="N103" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="N103" s="1" t="s">
+      <c r="O103" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="O103" s="1" t="s">
-        <v>1014</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
@@ -10687,16 +10702,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>147</v>
@@ -10714,22 +10729,22 @@
         <v>24</v>
       </c>
       <c r="J104" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="L104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M104" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="L104" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M104" s="1" t="s">
+      <c r="N104" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="N104" s="1" t="s">
+      <c r="O104" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
@@ -10747,49 +10762,49 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>1029</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H105" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K105" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K105" s="1" t="s">
+      <c r="L105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M105" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="L105" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M105" s="1" t="s">
+      <c r="N105" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="N105" s="1" t="s">
+      <c r="O105" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>1034</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
@@ -10807,19 +10822,19 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>1039</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>169</v>
@@ -10834,22 +10849,22 @@
         <v>24</v>
       </c>
       <c r="J106" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="L106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M106" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="L106" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M106" s="1" t="s">
+      <c r="N106" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="N106" s="1" t="s">
+      <c r="O106" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
@@ -10867,22 +10882,22 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>1047</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>1048</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>21</v>
@@ -10894,22 +10909,22 @@
         <v>24</v>
       </c>
       <c r="J107" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K107" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="K107" s="1" t="s">
+      <c r="L107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M107" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="L107" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M107" s="1" t="s">
+      <c r="N107" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="N107" s="1" t="s">
+      <c r="O107" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>1054</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
@@ -10927,49 +10942,49 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>1059</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H108" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M108" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M108" s="1" t="s">
+      <c r="N108" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="N108" s="1" t="s">
+      <c r="O108" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>1063</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
@@ -10987,16 +11002,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>1067</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>104</v>
@@ -11014,22 +11029,22 @@
         <v>24</v>
       </c>
       <c r="J109" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K109" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="K109" s="1" t="s">
+      <c r="L109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M109" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="L109" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M109" s="1" t="s">
+      <c r="N109" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="N109" s="1" t="s">
+      <c r="O109" s="1" t="s">
         <v>1071</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>1072</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
@@ -11047,49 +11062,49 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>1075</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J110" s="1" t="s">
+      <c r="K110" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="K110" s="1" t="s">
+      <c r="L110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M110" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="L110" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M110" s="1" t="s">
+      <c r="N110" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="N110" s="1" t="s">
+      <c r="O110" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>1081</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
@@ -11107,49 +11122,49 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>1086</v>
-      </c>
       <c r="F111" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H111" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K111" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K111" s="1" t="s">
+      <c r="L111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M111" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="L111" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M111" s="1" t="s">
+      <c r="N111" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="N111" s="1" t="s">
+      <c r="O111" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>1091</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
@@ -11167,19 +11182,19 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>1094</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>24</v>
@@ -11188,28 +11203,28 @@
         <v>21</v>
       </c>
       <c r="H112" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K112" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K112" s="1" t="s">
+      <c r="L112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M112" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="L112" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M112" s="1" t="s">
+      <c r="N112" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="N112" s="1" t="s">
+      <c r="O112" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>1100</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
@@ -11227,22 +11242,22 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>1103</v>
-      </c>
       <c r="D113" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>21</v>
@@ -11257,19 +11272,19 @@
         <v>24</v>
       </c>
       <c r="K113" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M113" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="L113" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M113" s="1" t="s">
+      <c r="N113" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="N113" s="1" t="s">
+      <c r="O113" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>1107</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
@@ -11287,49 +11302,49 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>1112</v>
-      </c>
       <c r="F114" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H114" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K114" s="1" t="s">
+      <c r="L114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M114" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="L114" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M114" s="1" t="s">
+      <c r="N114" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="N114" s="1" t="s">
+      <c r="O114" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>1117</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
@@ -11347,49 +11362,49 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>1122</v>
-      </c>
       <c r="F115" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H115" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K115" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K115" s="1" t="s">
+      <c r="L115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M115" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="L115" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M115" s="1" t="s">
+      <c r="N115" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="N115" s="1" t="s">
+      <c r="O115" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>1127</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
@@ -11407,49 +11422,49 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>1132</v>
-      </c>
       <c r="F116" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H116" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="I116" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K116" s="1" t="s">
+      <c r="L116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M116" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="L116" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M116" s="1" t="s">
+      <c r="N116" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="N116" s="1" t="s">
+      <c r="O116" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
@@ -11467,19 +11482,19 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>1141</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>24</v>
@@ -11488,28 +11503,28 @@
         <v>21</v>
       </c>
       <c r="H117" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M117" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="I117" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M117" s="1" t="s">
+      <c r="N117" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="N117" s="1" t="s">
+      <c r="O117" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
@@ -11527,22 +11542,22 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E118" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>1150</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>21</v>
@@ -11554,22 +11569,22 @@
         <v>24</v>
       </c>
       <c r="J118" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="K118" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="K118" s="1" t="s">
+      <c r="L118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M118" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="L118" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M118" s="1" t="s">
+      <c r="N118" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="N118" s="1" t="s">
+      <c r="O118" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>1155</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
@@ -11587,49 +11602,49 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H119" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K119" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K119" s="1" t="s">
+      <c r="L119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M119" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="L119" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M119" s="1" t="s">
+      <c r="N119" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="N119" s="1" t="s">
+      <c r="O119" s="1" t="s">
         <v>1165</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>1166</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
@@ -11647,22 +11662,22 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>1170</v>
-      </c>
       <c r="F120" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>21</v>
@@ -11671,25 +11686,25 @@
         <v>24</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K120" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M120" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="L120" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M120" s="1" t="s">
+      <c r="N120" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="N120" s="1" t="s">
+      <c r="O120" s="1" t="s">
         <v>1173</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>1174</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
@@ -11707,49 +11722,49 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>1177</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>1178</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H121" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K121" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K121" s="1" t="s">
+      <c r="L121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M121" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="L121" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M121" s="1" t="s">
+      <c r="N121" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="N121" s="1" t="s">
+      <c r="O121" s="1" t="s">
         <v>1182</v>
-      </c>
-      <c r="O121" s="1" t="s">
-        <v>1183</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
@@ -11767,22 +11782,22 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>1188</v>
-      </c>
       <c r="F122" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>21</v>
@@ -11791,25 +11806,25 @@
         <v>24</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J122" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="K122" s="1" t="s">
+      <c r="L122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M122" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="L122" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M122" s="1" t="s">
+      <c r="N122" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="N122" s="1" t="s">
+      <c r="O122" s="1" t="s">
         <v>1192</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>1193</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
@@ -11827,13 +11842,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>1196</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>145</v>
@@ -11848,28 +11863,28 @@
         <v>21</v>
       </c>
       <c r="H123" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="J123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="J123" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K123" s="1" t="s">
+      <c r="L123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M123" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="L123" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M123" s="1" t="s">
+      <c r="N123" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="N123" s="1" t="s">
+      <c r="O123" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="O123" s="1" t="s">
-        <v>1202</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
@@ -11887,49 +11902,49 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>1206</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H124" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K124" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="I124" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K124" s="1" t="s">
+      <c r="L124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M124" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="L124" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M124" s="1" t="s">
+      <c r="N124" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="N124" s="1" t="s">
+      <c r="O124" s="1" t="s">
         <v>1210</v>
-      </c>
-      <c r="O124" s="1" t="s">
-        <v>1211</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
@@ -11947,22 +11962,22 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>1213</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>1214</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>21</v>
@@ -11977,19 +11992,19 @@
         <v>24</v>
       </c>
       <c r="K125" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M125" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="L125" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M125" s="1" t="s">
+      <c r="N125" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="N125" s="1" t="s">
+      <c r="O125" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>1219</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
@@ -12007,22 +12022,22 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>1222</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>1223</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>21</v>
@@ -12034,22 +12049,22 @@
         <v>24</v>
       </c>
       <c r="J126" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="K126" s="1" t="s">
+      <c r="L126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M126" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="L126" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M126" s="1" t="s">
+      <c r="N126" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="N126" s="1" t="s">
+      <c r="O126" s="1" t="s">
         <v>1228</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>1229</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
@@ -12067,22 +12082,22 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>1233</v>
-      </c>
       <c r="F127" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>21</v>
@@ -12091,7 +12106,7 @@
         <v>24</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>24</v>
@@ -12103,13 +12118,13 @@
         <v>24</v>
       </c>
       <c r="M127" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="N127" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="N127" s="1" t="s">
+      <c r="O127" s="1" t="s">
         <v>1235</v>
-      </c>
-      <c r="O127" s="1" t="s">
-        <v>1236</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
@@ -12127,49 +12142,49 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>1239</v>
-      </c>
       <c r="D128" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H128" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K128" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K128" s="1" t="s">
+      <c r="L128" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M128" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="L128" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M128" s="1" t="s">
+      <c r="N128" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="N128" s="1" t="s">
+      <c r="O128" s="1" t="s">
         <v>1243</v>
-      </c>
-      <c r="O128" s="1" t="s">
-        <v>1244</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
@@ -12187,49 +12202,49 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>1248</v>
-      </c>
       <c r="F129" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H129" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J129" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J129" s="1" t="s">
+      <c r="K129" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="K129" s="1" t="s">
+      <c r="L129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M129" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="L129" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M129" s="1" t="s">
+      <c r="N129" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="N129" s="1" t="s">
+      <c r="O129" s="1" t="s">
         <v>1253</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>1254</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
@@ -12247,19 +12262,19 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>1257</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>1258</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>24</v>
@@ -12268,28 +12283,28 @@
         <v>21</v>
       </c>
       <c r="H130" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I130" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="J130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K130" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="J130" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K130" s="1" t="s">
+      <c r="L130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M130" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="L130" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M130" s="1" t="s">
+      <c r="N130" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="N130" s="1" t="s">
+      <c r="O130" s="1" t="s">
         <v>1263</v>
-      </c>
-      <c r="O130" s="1" t="s">
-        <v>1264</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
@@ -12307,22 +12322,22 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E131" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>1268</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>1269</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>21</v>
@@ -12337,19 +12352,19 @@
         <v>24</v>
       </c>
       <c r="K131" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M131" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="L131" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M131" s="1" t="s">
+      <c r="N131" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="N131" s="1" t="s">
+      <c r="O131" s="1" t="s">
         <v>1272</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>1273</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
@@ -12367,49 +12382,49 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>1277</v>
-      </c>
       <c r="F132" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H132" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K132" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="I132" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K132" s="1" t="s">
+      <c r="L132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M132" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="L132" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M132" s="1" t="s">
+      <c r="N132" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="N132" s="1" t="s">
+      <c r="O132" s="1" t="s">
         <v>1281</v>
-      </c>
-      <c r="O132" s="1" t="s">
-        <v>1282</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
@@ -12427,49 +12442,49 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>1287</v>
-      </c>
       <c r="F133" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H133" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K133" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="I133" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K133" s="1" t="s">
+      <c r="L133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M133" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="L133" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M133" s="1" t="s">
+      <c r="N133" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="N133" s="1" t="s">
+      <c r="O133" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="O133" s="1" t="s">
-        <v>1292</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
@@ -12487,22 +12502,22 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>1294</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>1295</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>21</v>
@@ -12514,22 +12529,22 @@
         <v>24</v>
       </c>
       <c r="J134" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K134" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="K134" s="1" t="s">
+      <c r="L134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M134" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="L134" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M134" s="1" t="s">
+      <c r="N134" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="N134" s="1" t="s">
+      <c r="O134" s="1" t="s">
         <v>1299</v>
-      </c>
-      <c r="O134" s="1" t="s">
-        <v>1300</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
@@ -12547,49 +12562,49 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>1304</v>
-      </c>
       <c r="F135" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H135" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K135" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="I135" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K135" s="1" t="s">
+      <c r="L135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M135" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="L135" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M135" s="1" t="s">
+      <c r="N135" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="N135" s="1" t="s">
+      <c r="O135" s="1" t="s">
         <v>1308</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>1309</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
@@ -12607,22 +12622,22 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>1313</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>21</v>
@@ -12637,19 +12652,19 @@
         <v>24</v>
       </c>
       <c r="K136" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M136" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="L136" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M136" s="1" t="s">
+      <c r="N136" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="N136" s="1" t="s">
+      <c r="O136" s="1" t="s">
         <v>1316</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>1317</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
@@ -12667,49 +12682,49 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>1321</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>1322</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H137" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K137" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="I137" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K137" s="1" t="s">
+      <c r="L137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M137" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="L137" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M137" s="1" t="s">
+      <c r="N137" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="N137" s="1" t="s">
+      <c r="O137" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="O137" s="1" t="s">
-        <v>1327</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
@@ -12727,49 +12742,49 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>1332</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>1333</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H138" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K138" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="I138" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K138" s="1" t="s">
+      <c r="L138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M138" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="L138" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M138" s="1" t="s">
+      <c r="N138" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="N138" s="1" t="s">
+      <c r="O138" s="1" t="s">
         <v>1337</v>
-      </c>
-      <c r="O138" s="1" t="s">
-        <v>1338</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
@@ -12787,19 +12802,19 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>1341</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>1342</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>168</v>
@@ -12808,25 +12823,25 @@
         <v>21</v>
       </c>
       <c r="H139" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="J139" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="K139" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="K139" s="1" t="s">
+      <c r="L139" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M139" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="L139" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M139" s="1" t="s">
+      <c r="N139" s="1" t="s">
         <v>1347</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>1348</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>24</v>
@@ -12847,22 +12862,22 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>1351</v>
-      </c>
       <c r="D140" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>21</v>
@@ -12874,22 +12889,22 @@
         <v>24</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K140" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M140" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="L140" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M140" s="1" t="s">
+      <c r="N140" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="N140" s="1" t="s">
+      <c r="O140" s="1" t="s">
         <v>1354</v>
-      </c>
-      <c r="O140" s="1" t="s">
-        <v>1355</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
@@ -12907,22 +12922,22 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>1358</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>1359</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>21</v>
@@ -12934,22 +12949,22 @@
         <v>24</v>
       </c>
       <c r="J141" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K141" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="K141" s="1" t="s">
+      <c r="L141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M141" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="L141" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M141" s="1" t="s">
+      <c r="N141" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="N141" s="1" t="s">
+      <c r="O141" s="1" t="s">
         <v>1363</v>
-      </c>
-      <c r="O141" s="1" t="s">
-        <v>1364</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
@@ -12967,49 +12982,49 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>1369</v>
-      </c>
       <c r="F142" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H142" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K142" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="I142" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K142" s="1" t="s">
+      <c r="L142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M142" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="L142" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M142" s="1" t="s">
+      <c r="N142" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="N142" s="1" t="s">
+      <c r="O142" s="1" t="s">
         <v>1373</v>
-      </c>
-      <c r="O142" s="1" t="s">
-        <v>1374</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>

--- a/tabelle_1_main.xlsx
+++ b/tabelle_1_main.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="1376">
   <si>
     <t>phrasem_id</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>beispiel_3</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
   <si>
     <t>ph00001</t>
@@ -159,6 +162,9 @@
     <t>Hast du schon gehört? Martin fährt total auf Hannah ab!</t>
   </si>
   <si>
+    <t>06.02.2026 15.40</t>
+  </si>
+  <si>
     <t>ph00002</t>
   </si>
   <si>
@@ -1873,7 +1879,7 @@
     <t>Er geht jeden Morgen vor der Arbeit 60 Minuten joggen, auch im Winter. Er ist wirklich ein harter Hund.</t>
   </si>
   <si>
-    <t>Er ist ein harter Hund. Egal, wie schwer es wird, er gibt nicht auf</t>
+    <t>Er ist ein harter Hund. Egal, wie schwer es wird, er gibt nicht auf.</t>
   </si>
   <si>
     <t>ph00060</t>
@@ -4576,7 +4582,9 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -4592,51 +4600,53 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -4652,49 +4662,49 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -4712,49 +4722,49 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -4772,49 +4782,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -4832,49 +4842,49 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -4892,49 +4902,49 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -4952,49 +4962,49 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -5012,49 +5022,49 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -5072,49 +5082,49 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -5132,49 +5142,49 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -5192,49 +5202,49 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -5252,49 +5262,49 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -5312,49 +5322,49 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -5372,49 +5382,49 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -5432,49 +5442,49 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -5492,49 +5502,49 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -5552,49 +5562,49 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -5612,43 +5622,43 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -5666,49 +5676,49 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -5726,49 +5736,49 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -5786,49 +5796,49 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -5846,49 +5856,49 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -5906,49 +5916,49 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -5966,49 +5976,49 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -6026,49 +6036,49 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -6086,49 +6096,49 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -6146,49 +6156,49 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -6206,49 +6216,49 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -6266,47 +6276,47 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -6324,49 +6334,49 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -6384,49 +6394,49 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -6444,49 +6454,49 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -6504,49 +6514,49 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -6564,49 +6574,49 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -6624,49 +6634,49 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -6684,49 +6694,49 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -6744,49 +6754,49 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -6804,49 +6814,49 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -6864,49 +6874,49 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -6924,49 +6934,49 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -6984,49 +6994,49 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -7044,49 +7054,49 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -7104,49 +7114,49 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -7164,49 +7174,49 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -7224,49 +7234,49 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -7284,49 +7294,49 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -7344,47 +7354,47 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -7402,49 +7412,49 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -7462,49 +7472,49 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -7522,49 +7532,49 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -7582,49 +7592,49 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -7642,49 +7652,49 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -7702,49 +7712,49 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -7762,49 +7772,49 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -7822,49 +7832,49 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -7882,49 +7892,49 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -7942,49 +7952,49 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -8002,49 +8012,49 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
@@ -8062,49 +8072,49 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -8122,49 +8132,49 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
@@ -8182,49 +8192,49 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -8242,49 +8252,49 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -8302,49 +8312,49 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
@@ -8362,49 +8372,49 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -8422,49 +8432,49 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -8482,49 +8492,49 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -8542,49 +8552,49 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -8602,49 +8612,49 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -8662,49 +8672,49 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -8722,49 +8732,49 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -8782,49 +8792,49 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
@@ -8842,49 +8852,49 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -8902,49 +8912,49 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -8962,49 +8972,49 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -9022,49 +9032,49 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
@@ -9082,49 +9092,49 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -9142,49 +9152,49 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
@@ -9202,49 +9212,49 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
@@ -9262,49 +9272,49 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
@@ -9322,49 +9332,49 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
@@ -9382,49 +9392,49 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -9442,49 +9452,49 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
@@ -9502,49 +9512,49 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -9562,49 +9572,49 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -9622,49 +9632,49 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -9682,49 +9692,49 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -9742,49 +9752,49 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -9802,49 +9812,49 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -9862,49 +9872,49 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
@@ -9922,49 +9932,49 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -9982,49 +9992,49 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -10042,49 +10052,49 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
@@ -10102,49 +10112,49 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
@@ -10162,49 +10172,49 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
@@ -10222,49 +10232,49 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
@@ -10282,49 +10292,49 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
@@ -10342,49 +10352,49 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
@@ -10402,49 +10412,49 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
@@ -10462,49 +10472,49 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -10522,49 +10532,49 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
@@ -10582,49 +10592,49 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -10642,49 +10652,49 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
@@ -10702,49 +10712,49 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
@@ -10762,49 +10772,49 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
@@ -10822,49 +10832,49 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
@@ -10882,49 +10892,49 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
@@ -10942,49 +10952,49 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
@@ -11002,49 +11012,49 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
@@ -11062,49 +11072,49 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
@@ -11122,49 +11132,49 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
@@ -11182,49 +11192,49 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
@@ -11242,49 +11252,49 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
@@ -11302,49 +11312,49 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
@@ -11362,49 +11372,49 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
@@ -11422,49 +11432,49 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
@@ -11482,49 +11492,49 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
@@ -11542,49 +11552,49 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
@@ -11602,49 +11612,49 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
@@ -11662,49 +11672,49 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
@@ -11722,49 +11732,49 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
@@ -11782,49 +11792,49 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
@@ -11842,49 +11852,49 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
@@ -11902,49 +11912,49 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
@@ -11962,49 +11972,49 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
@@ -12022,49 +12032,49 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
@@ -12082,49 +12092,49 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
@@ -12142,49 +12152,49 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
@@ -12202,49 +12212,49 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
@@ -12262,49 +12272,49 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
@@ -12322,49 +12332,49 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
@@ -12382,49 +12392,49 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
@@ -12442,49 +12452,49 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
@@ -12502,49 +12512,49 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
@@ -12562,49 +12572,49 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
@@ -12622,49 +12632,49 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
@@ -12682,49 +12692,49 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
@@ -12742,49 +12752,49 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
@@ -12802,49 +12812,49 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
@@ -12862,49 +12872,49 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
@@ -12922,49 +12932,49 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
@@ -12982,49 +12992,49 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>

--- a/tabelle_1_main.xlsx
+++ b/tabelle_1_main.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="1379">
   <si>
     <t>phrasem_id</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>beispiel_3</t>
+  </si>
+  <si>
+    <t>highlight_words</t>
   </si>
   <si>
     <t>version</t>
@@ -162,7 +165,10 @@
     <t>Hast du schon gehört? Martin fährt total auf Hannah ab!</t>
   </si>
   <si>
-    <t>06.02.2026 15.40</t>
+    <t>auf; abfahren; abgefahren; etw; ist</t>
+  </si>
+  <si>
+    <t>08.02.2026 16.30</t>
   </si>
   <si>
     <t>ph00002</t>
@@ -196,6 +202,9 @@
   </si>
   <si>
     <t>Beim Karaoke habe ich mich echt zum Affen gemacht, aber wenigstens hatten alle Spaß.</t>
+  </si>
+  <si>
+    <t>sich; zum; Affen; machen; habe; mich; gemacht; dich</t>
   </si>
   <si>
     <t>ph00003</t>
@@ -4585,7 +4594,9 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -4600,54 +4611,56 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -4662,51 +4675,53 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -4722,49 +4737,49 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -4782,49 +4797,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -4842,49 +4857,49 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -4902,49 +4917,49 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -4962,49 +4977,49 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -5022,49 +5037,49 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -5082,49 +5097,49 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -5142,49 +5157,49 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -5202,49 +5217,49 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -5262,49 +5277,49 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -5322,49 +5337,49 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -5382,49 +5397,49 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -5442,49 +5457,49 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -5502,49 +5517,49 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -5562,49 +5577,49 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -5622,43 +5637,43 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -5676,49 +5691,49 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -5736,49 +5751,49 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -5796,49 +5811,49 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -5856,49 +5871,49 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -5916,49 +5931,49 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -5976,49 +5991,49 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -6036,49 +6051,49 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -6096,49 +6111,49 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -6156,49 +6171,49 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -6216,49 +6231,49 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -6276,47 +6291,47 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -6334,49 +6349,49 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -6394,49 +6409,49 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -6454,49 +6469,49 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -6514,49 +6529,49 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -6574,49 +6589,49 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -6634,49 +6649,49 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -6694,49 +6709,49 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -6754,49 +6769,49 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -6814,49 +6829,49 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -6874,49 +6889,49 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -6934,49 +6949,49 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -6994,49 +7009,49 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -7054,49 +7069,49 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -7114,49 +7129,49 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -7174,49 +7189,49 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -7234,49 +7249,49 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -7294,49 +7309,49 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -7354,47 +7369,47 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -7412,49 +7427,49 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -7472,49 +7487,49 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -7532,49 +7547,49 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -7592,49 +7607,49 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -7652,49 +7667,49 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -7712,49 +7727,49 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -7772,49 +7787,49 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -7832,49 +7847,49 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -7892,49 +7907,49 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -7952,49 +7967,49 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -8012,49 +8027,49 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
@@ -8072,49 +8087,49 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -8132,49 +8147,49 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
@@ -8192,49 +8207,49 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -8252,49 +8267,49 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -8312,49 +8327,49 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
@@ -8372,49 +8387,49 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -8432,49 +8447,49 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -8492,49 +8507,49 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -8552,49 +8567,49 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -8612,49 +8627,49 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -8672,49 +8687,49 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -8732,49 +8747,49 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -8792,49 +8807,49 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
@@ -8852,49 +8867,49 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -8912,49 +8927,49 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -8972,49 +8987,49 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -9032,49 +9047,49 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
@@ -9092,49 +9107,49 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -9152,49 +9167,49 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
@@ -9212,49 +9227,49 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
@@ -9272,49 +9287,49 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
@@ -9332,49 +9347,49 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
@@ -9392,49 +9407,49 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -9452,49 +9467,49 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
@@ -9512,49 +9527,49 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -9572,49 +9587,49 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -9632,49 +9647,49 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -9692,49 +9707,49 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -9752,49 +9767,49 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -9812,49 +9827,49 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -9872,49 +9887,49 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
@@ -9932,49 +9947,49 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -9992,49 +10007,49 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -10052,49 +10067,49 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
@@ -10112,49 +10127,49 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
@@ -10172,49 +10187,49 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
@@ -10232,49 +10247,49 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
@@ -10292,49 +10307,49 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
@@ -10352,49 +10367,49 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
@@ -10412,49 +10427,49 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
@@ -10472,49 +10487,49 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -10532,49 +10547,49 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
@@ -10592,49 +10607,49 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -10652,49 +10667,49 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
@@ -10712,49 +10727,49 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
@@ -10772,49 +10787,49 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
@@ -10832,49 +10847,49 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
@@ -10892,49 +10907,49 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
@@ -10952,49 +10967,49 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
@@ -11012,49 +11027,49 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
@@ -11072,49 +11087,49 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
@@ -11132,49 +11147,49 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
@@ -11192,49 +11207,49 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
@@ -11252,49 +11267,49 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
@@ -11312,49 +11327,49 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
@@ -11372,49 +11387,49 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
@@ -11432,49 +11447,49 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
@@ -11492,49 +11507,49 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
@@ -11552,49 +11567,49 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
@@ -11612,49 +11627,49 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
@@ -11672,49 +11687,49 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
@@ -11732,49 +11747,49 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
@@ -11792,49 +11807,49 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
@@ -11852,49 +11867,49 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
@@ -11912,49 +11927,49 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
@@ -11972,49 +11987,49 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
@@ -12032,49 +12047,49 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
@@ -12092,49 +12107,49 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
@@ -12152,49 +12167,49 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
@@ -12212,49 +12227,49 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
@@ -12272,49 +12287,49 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
@@ -12332,49 +12347,49 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
@@ -12392,49 +12407,49 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
@@ -12452,49 +12467,49 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
@@ -12512,49 +12527,49 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
@@ -12572,49 +12587,49 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
@@ -12632,49 +12647,49 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
@@ -12692,49 +12707,49 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
@@ -12752,49 +12767,49 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
@@ -12812,49 +12827,49 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
@@ -12872,49 +12887,49 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
@@ -12932,49 +12947,49 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
@@ -12992,49 +13007,49 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>

--- a/tabelle_1_main.xlsx
+++ b/tabelle_1_main.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="1380">
   <si>
     <t>phrasem_id</t>
   </si>
@@ -165,10 +165,10 @@
     <t>Hast du schon gehört? Martin fährt total auf Hannah ab!</t>
   </si>
   <si>
-    <t>auf; abfahren; abgefahren; etw; ist</t>
-  </si>
-  <si>
-    <t>08.02.2026 16.30</t>
+    <t>auf; abfahren; abgefahren; etw; ist; fährt; ab</t>
+  </si>
+  <si>
+    <t>09.02.2026 15.15</t>
   </si>
   <si>
     <t>ph00002</t>
@@ -204,7 +204,7 @@
     <t>Beim Karaoke habe ich mich echt zum Affen gemacht, aber wenigstens hatten alle Spaß.</t>
   </si>
   <si>
-    <t>sich; zum; Affen; machen; habe; mich; gemacht; dich</t>
+    <t>sich; zum; Affen; machen; habe; mich; gemacht; dich; macht, mach</t>
   </si>
   <si>
     <t>ph00003</t>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Das glaubst du doch nicht, dass er wirklich nie mehr Fleisch essen möchte. Er nimmt dich nur auf den Arm.</t>
+  </si>
+  <si>
+    <t>Spaß machen; jmdn. verarschen; jmdn. veräppeln; auf den Arm; nehmen; genommen; hat; nimmt</t>
   </si>
   <si>
     <t>ph00004</t>
@@ -4781,7 +4784,9 @@
       <c r="O4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -4797,22 +4802,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>23</v>
@@ -4824,22 +4829,22 @@
         <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -4857,19 +4862,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>26</v>
@@ -4881,25 +4886,25 @@
         <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -4917,19 +4922,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>26</v>
@@ -4941,25 +4946,25 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -4977,16 +4982,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>21</v>
@@ -4998,25 +5003,25 @@
         <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>26</v>
@@ -5037,19 +5042,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>26</v>
@@ -5061,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>26</v>
@@ -5073,13 +5078,13 @@
         <v>26</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -5097,19 +5102,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>26</v>
@@ -5124,7 +5129,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>26</v>
@@ -5133,13 +5138,13 @@
         <v>26</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -5157,19 +5162,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>26</v>
@@ -5178,7 +5183,7 @@
         <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>26</v>
@@ -5187,19 +5192,19 @@
         <v>26</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -5217,28 +5222,28 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>26</v>
@@ -5247,19 +5252,19 @@
         <v>26</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -5277,22 +5282,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>23</v>
@@ -5304,22 +5309,22 @@
         <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -5337,22 +5342,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>23</v>
@@ -5364,22 +5369,22 @@
         <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -5397,22 +5402,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>23</v>
@@ -5424,22 +5429,22 @@
         <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -5457,22 +5462,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>23</v>
@@ -5484,22 +5489,22 @@
         <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -5517,22 +5522,22 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>23</v>
@@ -5547,19 +5552,19 @@
         <v>26</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -5577,28 +5582,28 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>26</v>
@@ -5607,19 +5612,19 @@
         <v>26</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -5637,22 +5642,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>23</v>
@@ -5660,20 +5665,20 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -5691,22 +5696,22 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>23</v>
@@ -5718,22 +5723,22 @@
         <v>26</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -5751,22 +5756,22 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>23</v>
@@ -5781,16 +5786,16 @@
         <v>26</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>26</v>
@@ -5811,22 +5816,22 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>23</v>
@@ -5835,25 +5840,25 @@
         <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -5871,22 +5876,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>23</v>
@@ -5901,19 +5906,19 @@
         <v>26</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -5931,19 +5936,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>49</v>
@@ -5958,7 +5963,7 @@
         <v>26</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>26</v>
@@ -5967,13 +5972,13 @@
         <v>26</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -5991,31 +5996,31 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>26</v>
@@ -6027,13 +6032,13 @@
         <v>26</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -6051,28 +6056,28 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>26</v>
@@ -6081,19 +6086,19 @@
         <v>26</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -6111,34 +6116,34 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>26</v>
@@ -6147,13 +6152,13 @@
         <v>26</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -6171,22 +6176,22 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>23</v>
@@ -6195,25 +6200,25 @@
         <v>26</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -6231,22 +6236,22 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>23</v>
@@ -6261,19 +6266,19 @@
         <v>26</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -6291,22 +6296,22 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>23</v>
@@ -6321,17 +6326,17 @@
         <v>26</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -6349,28 +6354,28 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>26</v>
@@ -6379,19 +6384,19 @@
         <v>26</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -6409,22 +6414,22 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>23</v>
@@ -6436,19 +6441,19 @@
         <v>26</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>26</v>
@@ -6469,28 +6474,28 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>26</v>
@@ -6499,19 +6504,19 @@
         <v>26</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -6529,28 +6534,28 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>26</v>
@@ -6559,19 +6564,19 @@
         <v>26</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -6589,22 +6594,22 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>23</v>
@@ -6613,25 +6618,25 @@
         <v>26</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -6649,22 +6654,22 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>23</v>
@@ -6676,19 +6681,19 @@
         <v>26</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>26</v>
@@ -6709,46 +6714,46 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>26</v>
@@ -6769,22 +6774,22 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>23</v>
@@ -6793,25 +6798,25 @@
         <v>26</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -6829,49 +6834,49 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -6889,28 +6894,28 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>26</v>
@@ -6919,19 +6924,19 @@
         <v>26</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -6949,28 +6954,28 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>26</v>
@@ -6979,19 +6984,19 @@
         <v>26</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -7009,22 +7014,22 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>23</v>
@@ -7036,22 +7041,22 @@
         <v>26</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -7069,22 +7074,22 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>23</v>
@@ -7096,19 +7101,19 @@
         <v>26</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>26</v>
@@ -7129,49 +7134,49 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -7189,49 +7194,49 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -7249,49 +7254,49 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -7309,49 +7314,49 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -7369,47 +7374,47 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -7427,22 +7432,22 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>23</v>
@@ -7451,25 +7456,25 @@
         <v>26</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -7487,49 +7492,49 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -7547,28 +7552,28 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>26</v>
@@ -7577,19 +7582,19 @@
         <v>26</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -7607,22 +7612,22 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>23</v>
@@ -7634,22 +7639,22 @@
         <v>26</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -7667,49 +7672,49 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -7727,22 +7732,22 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>23</v>
@@ -7754,22 +7759,22 @@
         <v>26</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -7787,19 +7792,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>49</v>
@@ -7814,22 +7819,22 @@
         <v>26</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -7847,22 +7852,22 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>23</v>
@@ -7874,22 +7879,22 @@
         <v>26</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -7907,19 +7912,19 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>26</v>
@@ -7928,7 +7933,7 @@
         <v>23</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>26</v>
@@ -7937,19 +7942,19 @@
         <v>26</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -7967,22 +7972,22 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>23</v>
@@ -7994,22 +7999,22 @@
         <v>26</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -8027,28 +8032,28 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>26</v>
@@ -8063,13 +8068,13 @@
         <v>26</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
@@ -8087,28 +8092,28 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>26</v>
@@ -8117,19 +8122,19 @@
         <v>26</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -8147,25 +8152,25 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>26</v>
@@ -8174,22 +8179,22 @@
         <v>26</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
@@ -8207,19 +8212,19 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>26</v>
@@ -8234,22 +8239,22 @@
         <v>26</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -8267,28 +8272,28 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>26</v>
@@ -8297,19 +8302,19 @@
         <v>26</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -8327,49 +8332,49 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
@@ -8387,31 +8392,31 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>26</v>
@@ -8423,13 +8428,13 @@
         <v>26</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -8447,22 +8452,22 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>23</v>
@@ -8471,25 +8476,25 @@
         <v>26</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -8507,28 +8512,28 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>26</v>
@@ -8537,19 +8542,19 @@
         <v>26</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -8567,28 +8572,28 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>26</v>
@@ -8597,19 +8602,19 @@
         <v>26</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -8627,28 +8632,28 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>26</v>
@@ -8657,19 +8662,19 @@
         <v>26</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -8687,28 +8692,28 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>26</v>
@@ -8717,19 +8722,19 @@
         <v>26</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -8747,22 +8752,22 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>23</v>
@@ -8774,22 +8779,22 @@
         <v>26</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -8807,22 +8812,22 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>23</v>
@@ -8831,25 +8836,25 @@
         <v>26</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
@@ -8867,49 +8872,49 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -8927,49 +8932,49 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -8987,22 +8992,22 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>23</v>
@@ -9011,25 +9016,25 @@
         <v>26</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -9047,49 +9052,49 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
@@ -9107,22 +9112,22 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>23</v>
@@ -9134,22 +9139,22 @@
         <v>26</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -9167,19 +9172,19 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>26</v>
@@ -9194,22 +9199,22 @@
         <v>26</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
@@ -9227,22 +9232,22 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>23</v>
@@ -9251,25 +9256,25 @@
         <v>26</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
@@ -9287,28 +9292,28 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>26</v>
@@ -9317,19 +9322,19 @@
         <v>26</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
@@ -9347,22 +9352,22 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>23</v>
@@ -9377,19 +9382,19 @@
         <v>26</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
@@ -9407,22 +9412,22 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>23</v>
@@ -9437,19 +9442,19 @@
         <v>26</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -9467,19 +9472,19 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>20</v>
@@ -9488,28 +9493,28 @@
         <v>23</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
@@ -9527,19 +9532,19 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>26</v>
@@ -9548,7 +9553,7 @@
         <v>23</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>26</v>
@@ -9563,13 +9568,13 @@
         <v>26</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -9587,22 +9592,22 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>23</v>
@@ -9614,22 +9619,22 @@
         <v>26</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -9647,28 +9652,28 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>26</v>
@@ -9677,19 +9682,19 @@
         <v>26</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -9707,34 +9712,34 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>26</v>
@@ -9743,13 +9748,13 @@
         <v>26</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -9767,22 +9772,22 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>23</v>
@@ -9794,22 +9799,22 @@
         <v>26</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -9827,19 +9832,19 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>26</v>
@@ -9848,28 +9853,28 @@
         <v>23</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -9887,22 +9892,22 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>23</v>
@@ -9914,19 +9919,19 @@
         <v>26</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="O90" s="1" t="s">
         <v>26</v>
@@ -9947,22 +9952,22 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>23</v>
@@ -9974,22 +9979,22 @@
         <v>26</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -10007,19 +10012,19 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>49</v>
@@ -10037,19 +10042,19 @@
         <v>26</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -10067,28 +10072,28 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>26</v>
@@ -10097,19 +10102,19 @@
         <v>26</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
@@ -10127,34 +10132,34 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>26</v>
@@ -10163,13 +10168,13 @@
         <v>26</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
@@ -10187,22 +10192,22 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>23</v>
@@ -10214,22 +10219,22 @@
         <v>26</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
@@ -10247,28 +10252,28 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>26</v>
@@ -10283,13 +10288,13 @@
         <v>26</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
@@ -10307,28 +10312,28 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>26</v>
@@ -10343,13 +10348,13 @@
         <v>26</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
@@ -10367,22 +10372,22 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>23</v>
@@ -10394,22 +10399,22 @@
         <v>26</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
@@ -10427,22 +10432,22 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>23</v>
@@ -10457,19 +10462,19 @@
         <v>26</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
@@ -10487,19 +10492,19 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>26</v>
@@ -10517,19 +10522,19 @@
         <v>26</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -10547,22 +10552,22 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>23</v>
@@ -10574,22 +10579,22 @@
         <v>26</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
@@ -10607,22 +10612,22 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>23</v>
@@ -10631,25 +10636,25 @@
         <v>26</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -10667,22 +10672,22 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>23</v>
@@ -10694,22 +10699,22 @@
         <v>26</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
@@ -10727,19 +10732,19 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>26</v>
@@ -10754,22 +10759,22 @@
         <v>26</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
@@ -10787,28 +10792,28 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>26</v>
@@ -10817,19 +10822,19 @@
         <v>26</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
@@ -10847,22 +10852,22 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>23</v>
@@ -10874,22 +10879,22 @@
         <v>26</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
@@ -10907,22 +10912,22 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>23</v>
@@ -10934,22 +10939,22 @@
         <v>26</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
@@ -10967,28 +10972,28 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>26</v>
@@ -11003,13 +11008,13 @@
         <v>26</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
@@ -11027,19 +11032,19 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>26</v>
@@ -11054,22 +11059,22 @@
         <v>26</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
@@ -11087,25 +11092,25 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>26</v>
@@ -11114,22 +11119,22 @@
         <v>26</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
@@ -11147,28 +11152,28 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>26</v>
@@ -11177,19 +11182,19 @@
         <v>26</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
@@ -11207,19 +11212,19 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>26</v>
@@ -11228,7 +11233,7 @@
         <v>23</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>26</v>
@@ -11237,19 +11242,19 @@
         <v>26</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
@@ -11267,22 +11272,22 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>23</v>
@@ -11297,19 +11302,19 @@
         <v>26</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
@@ -11327,28 +11332,28 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>26</v>
@@ -11357,19 +11362,19 @@
         <v>26</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
@@ -11387,28 +11392,28 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>26</v>
@@ -11417,19 +11422,19 @@
         <v>26</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
@@ -11447,28 +11452,28 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>26</v>
@@ -11477,19 +11482,19 @@
         <v>26</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
@@ -11507,19 +11512,19 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>26</v>
@@ -11528,7 +11533,7 @@
         <v>23</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>26</v>
@@ -11543,13 +11548,13 @@
         <v>26</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
@@ -11567,22 +11572,22 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>23</v>
@@ -11594,22 +11599,22 @@
         <v>26</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
@@ -11627,28 +11632,28 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>26</v>
@@ -11657,19 +11662,19 @@
         <v>26</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
@@ -11687,22 +11692,22 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>23</v>
@@ -11711,25 +11716,25 @@
         <v>26</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
@@ -11747,28 +11752,28 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>26</v>
@@ -11777,19 +11782,19 @@
         <v>26</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
@@ -11807,22 +11812,22 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>23</v>
@@ -11831,25 +11836,25 @@
         <v>26</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
@@ -11867,49 +11872,49 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
@@ -11927,28 +11932,28 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>26</v>
@@ -11957,19 +11962,19 @@
         <v>26</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
@@ -11987,22 +11992,22 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>23</v>
@@ -12017,19 +12022,19 @@
         <v>26</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
@@ -12047,22 +12052,22 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>23</v>
@@ -12074,22 +12079,22 @@
         <v>26</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
@@ -12107,22 +12112,22 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>23</v>
@@ -12131,7 +12136,7 @@
         <v>26</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>26</v>
@@ -12143,13 +12148,13 @@
         <v>26</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
@@ -12167,49 +12172,49 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
@@ -12227,49 +12232,49 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
@@ -12287,19 +12292,19 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>26</v>
@@ -12308,28 +12313,28 @@
         <v>23</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
@@ -12347,22 +12352,22 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>23</v>
@@ -12377,19 +12382,19 @@
         <v>26</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
@@ -12407,28 +12412,28 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>26</v>
@@ -12437,19 +12442,19 @@
         <v>26</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
@@ -12467,28 +12472,28 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>26</v>
@@ -12497,19 +12502,19 @@
         <v>26</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
@@ -12527,22 +12532,22 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>23</v>
@@ -12554,22 +12559,22 @@
         <v>26</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
@@ -12587,28 +12592,28 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>26</v>
@@ -12617,19 +12622,19 @@
         <v>26</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
@@ -12647,22 +12652,22 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>23</v>
@@ -12677,19 +12682,19 @@
         <v>26</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
@@ -12707,49 +12712,49 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
@@ -12767,49 +12772,49 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
@@ -12827,46 +12832,46 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>26</v>
@@ -12887,22 +12892,22 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>23</v>
@@ -12914,22 +12919,22 @@
         <v>26</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
@@ -12947,22 +12952,22 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>23</v>
@@ -12974,22 +12979,22 @@
         <v>26</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
@@ -13007,49 +13012,49 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>

--- a/tabelle_1_main.xlsx
+++ b/tabelle_1_main.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="1383">
   <si>
     <t>phrasem_id</t>
   </si>
@@ -109,7 +109,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <i/>
         <color rgb="FF000000"/>
         <sz val="9.0"/>
       </rPr>
@@ -126,7 +125,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <i/>
         <color rgb="FF000000"/>
         <sz val="9.0"/>
       </rPr>
@@ -143,7 +141,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <i/>
         <color rgb="FF000000"/>
         <sz val="9.0"/>
       </rPr>
@@ -165,7 +162,7 @@
     <t>Hast du schon gehört? Martin fährt total auf Hannah ab!</t>
   </si>
   <si>
-    <t>auf; abfahren; abgefahren; etw; ist; fährt; ab</t>
+    <t>auf; abfahren; abgefahren; fährt; ab; etw. ist abgefahren</t>
   </si>
   <si>
     <t>09.02.2026 15.15</t>
@@ -204,7 +201,7 @@
     <t>Beim Karaoke habe ich mich echt zum Affen gemacht, aber wenigstens hatten alle Spaß.</t>
   </si>
   <si>
-    <t>sich; zum; Affen; machen; habe; mich; gemacht; dich; macht, mach</t>
+    <t>sich; zum; Affen; machen; habe; mich; gemacht; dich; macht; mach</t>
   </si>
   <si>
     <t>ph00003</t>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>Während des Meetings hat er wieder einen Witz aus dem Ärmel geschüttelt, um die Stimmung zu heben.</t>
+  </si>
+  <si>
+    <t>etw. aus der Hand schütteln; zaubern; etw. aus dem Handgelenk schütteln; zaubern; hat; aus dem Ärmel geschüttelt; aus dem Ärmel schütteln</t>
   </si>
   <si>
     <t>ph00005</t>
@@ -310,6 +310,9 @@
     <t>Die ständige Kritik stößt vielen Kollegen sauer auf.</t>
   </si>
   <si>
+    <t xml:space="preserve">übel aufstoßen; stößt; sauer; auf; </t>
+  </si>
+  <si>
     <t>ph00006</t>
   </si>
   <si>
@@ -338,6 +341,9 @@
   </si>
   <si>
     <t>Jens ist nicht der Richtige für dich. Ich habe dir nur die Augen geöffnet.</t>
+  </si>
+  <si>
+    <t>die Augen; öffnen; hat; geöffnet; habe</t>
   </si>
   <si>
     <t>ph00007</t>
@@ -4221,7 +4227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4235,13 +4241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -4287,7 +4286,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4304,21 +4303,18 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4538,14 +4534,16 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.25"/>
-    <col customWidth="1" min="2" max="2" width="20.0"/>
+    <col customWidth="1" min="1" max="1" width="6.88"/>
+    <col customWidth="1" min="2" max="2" width="17.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4655,7 +4653,7 @@
       <c r="N2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -4846,7 +4844,9 @@
       <c r="O5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -4862,21 +4862,21 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -4886,27 +4886,29 @@
         <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -4922,21 +4924,21 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -4946,27 +4948,29 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -4982,46 +4986,46 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>26</v>
@@ -5042,21 +5046,21 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -5066,7 +5070,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>26</v>
@@ -5078,13 +5082,13 @@
         <v>26</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -5102,21 +5106,21 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -5129,7 +5133,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>26</v>
@@ -5138,13 +5142,13 @@
         <v>26</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -5162,28 +5166,28 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>26</v>
@@ -5192,19 +5196,19 @@
         <v>26</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -5222,28 +5226,28 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>26</v>
@@ -5252,19 +5256,19 @@
         <v>26</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -5282,22 +5286,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>23</v>
@@ -5309,22 +5313,22 @@
         <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -5342,22 +5346,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>23</v>
@@ -5369,22 +5373,22 @@
         <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -5402,22 +5406,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>23</v>
@@ -5429,22 +5433,22 @@
         <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -5462,22 +5466,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>23</v>
@@ -5489,22 +5493,22 @@
         <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -5522,22 +5526,22 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>23</v>
@@ -5552,19 +5556,19 @@
         <v>26</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -5582,28 +5586,28 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>26</v>
@@ -5612,19 +5616,19 @@
         <v>26</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -5642,22 +5646,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>23</v>
@@ -5665,20 +5669,20 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -5696,22 +5700,22 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>23</v>
@@ -5723,22 +5727,22 @@
         <v>26</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -5756,22 +5760,22 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>23</v>
@@ -5786,16 +5790,16 @@
         <v>26</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>26</v>
@@ -5816,22 +5820,22 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>23</v>
@@ -5840,25 +5844,25 @@
         <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -5876,22 +5880,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>23</v>
@@ -5906,19 +5910,19 @@
         <v>26</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -5936,19 +5940,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>49</v>
@@ -5963,7 +5967,7 @@
         <v>26</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>26</v>
@@ -5972,13 +5976,13 @@
         <v>26</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -5996,31 +6000,31 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>26</v>
@@ -6032,13 +6036,13 @@
         <v>26</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -6056,28 +6060,28 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>26</v>
@@ -6086,19 +6090,19 @@
         <v>26</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -6116,34 +6120,34 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>26</v>
@@ -6152,13 +6156,13 @@
         <v>26</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -6176,22 +6180,22 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>23</v>
@@ -6200,25 +6204,25 @@
         <v>26</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -6236,22 +6240,22 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>23</v>
@@ -6266,19 +6270,19 @@
         <v>26</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -6296,22 +6300,22 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>23</v>
@@ -6326,17 +6330,17 @@
         <v>26</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -6354,28 +6358,28 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>26</v>
@@ -6384,19 +6388,19 @@
         <v>26</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -6414,22 +6418,22 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>23</v>
@@ -6441,19 +6445,19 @@
         <v>26</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>26</v>
@@ -6474,28 +6478,28 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>26</v>
@@ -6504,19 +6508,19 @@
         <v>26</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -6534,28 +6538,28 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>26</v>
@@ -6564,19 +6568,19 @@
         <v>26</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -6594,22 +6598,22 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>23</v>
@@ -6618,25 +6622,25 @@
         <v>26</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -6654,22 +6658,22 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>23</v>
@@ -6681,19 +6685,19 @@
         <v>26</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>26</v>
@@ -6714,46 +6718,46 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>26</v>
@@ -6774,22 +6778,22 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>23</v>
@@ -6798,25 +6802,25 @@
         <v>26</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -6834,49 +6838,49 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -6894,28 +6898,28 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>26</v>
@@ -6924,19 +6928,19 @@
         <v>26</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -6954,28 +6958,28 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>26</v>
@@ -6984,19 +6988,19 @@
         <v>26</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -7014,22 +7018,22 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>23</v>
@@ -7041,22 +7045,22 @@
         <v>26</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -7074,22 +7078,22 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>23</v>
@@ -7101,19 +7105,19 @@
         <v>26</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>26</v>
@@ -7134,49 +7138,49 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -7194,49 +7198,49 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -7254,49 +7258,49 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -7314,49 +7318,49 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -7374,47 +7378,47 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -7432,22 +7436,22 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>23</v>
@@ -7456,25 +7460,25 @@
         <v>26</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -7492,49 +7496,49 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -7552,28 +7556,28 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>26</v>
@@ -7582,19 +7586,19 @@
         <v>26</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -7612,22 +7616,22 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>23</v>
@@ -7639,22 +7643,22 @@
         <v>26</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -7672,49 +7676,49 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -7732,22 +7736,22 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>23</v>
@@ -7759,22 +7763,22 @@
         <v>26</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -7792,19 +7796,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>49</v>
@@ -7819,22 +7823,22 @@
         <v>26</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -7852,22 +7856,22 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>23</v>
@@ -7879,22 +7883,22 @@
         <v>26</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -7912,19 +7916,19 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>26</v>
@@ -7933,7 +7937,7 @@
         <v>23</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>26</v>
@@ -7942,19 +7946,19 @@
         <v>26</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -7972,22 +7976,22 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>23</v>
@@ -7999,22 +8003,22 @@
         <v>26</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -8032,28 +8036,28 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>26</v>
@@ -8068,13 +8072,13 @@
         <v>26</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
@@ -8092,28 +8096,28 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>26</v>
@@ -8122,19 +8126,19 @@
         <v>26</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -8152,25 +8156,25 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>26</v>
@@ -8179,22 +8183,22 @@
         <v>26</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
@@ -8212,19 +8216,19 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>26</v>
@@ -8239,22 +8243,22 @@
         <v>26</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -8272,28 +8276,28 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>26</v>
@@ -8302,19 +8306,19 @@
         <v>26</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -8332,49 +8336,49 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
@@ -8392,31 +8396,31 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>26</v>
@@ -8428,13 +8432,13 @@
         <v>26</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -8452,22 +8456,22 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>23</v>
@@ -8476,25 +8480,25 @@
         <v>26</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -8512,28 +8516,28 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>26</v>
@@ -8542,19 +8546,19 @@
         <v>26</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -8572,28 +8576,28 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>26</v>
@@ -8602,19 +8606,19 @@
         <v>26</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -8632,28 +8636,28 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>26</v>
@@ -8662,19 +8666,19 @@
         <v>26</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -8692,28 +8696,28 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>26</v>
@@ -8722,19 +8726,19 @@
         <v>26</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -8752,22 +8756,22 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>23</v>
@@ -8779,22 +8783,22 @@
         <v>26</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -8812,22 +8816,22 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>23</v>
@@ -8836,25 +8840,25 @@
         <v>26</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
@@ -8872,49 +8876,49 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -8932,49 +8936,49 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -8992,22 +8996,22 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>23</v>
@@ -9016,25 +9020,25 @@
         <v>26</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -9052,49 +9056,49 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
@@ -9112,22 +9116,22 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>23</v>
@@ -9139,22 +9143,22 @@
         <v>26</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -9172,24 +9176,24 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -9199,22 +9203,22 @@
         <v>26</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
@@ -9232,22 +9236,22 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>23</v>
@@ -9256,25 +9260,25 @@
         <v>26</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
@@ -9292,28 +9296,28 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>26</v>
@@ -9322,19 +9326,19 @@
         <v>26</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
@@ -9352,22 +9356,22 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>23</v>
@@ -9382,19 +9386,19 @@
         <v>26</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
@@ -9412,22 +9416,22 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>23</v>
@@ -9442,19 +9446,19 @@
         <v>26</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -9472,49 +9476,49 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="F83" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
@@ -9532,19 +9536,19 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>26</v>
@@ -9553,7 +9557,7 @@
         <v>23</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>26</v>
@@ -9568,13 +9572,13 @@
         <v>26</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -9592,22 +9596,22 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>23</v>
@@ -9619,22 +9623,22 @@
         <v>26</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -9652,28 +9656,28 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>26</v>
@@ -9682,19 +9686,19 @@
         <v>26</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -9712,34 +9716,34 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>26</v>
@@ -9748,13 +9752,13 @@
         <v>26</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -9772,22 +9776,22 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>23</v>
@@ -9799,22 +9803,22 @@
         <v>26</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -9832,19 +9836,19 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>26</v>
@@ -9853,28 +9857,28 @@
         <v>23</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -9892,22 +9896,22 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>23</v>
@@ -9919,19 +9923,19 @@
         <v>26</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="O90" s="1" t="s">
         <v>26</v>
@@ -9952,22 +9956,22 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>23</v>
@@ -9979,22 +9983,22 @@
         <v>26</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -10012,19 +10016,19 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>49</v>
@@ -10042,19 +10046,19 @@
         <v>26</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -10072,28 +10076,28 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>26</v>
@@ -10102,19 +10106,19 @@
         <v>26</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
@@ -10132,34 +10136,34 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>26</v>
@@ -10168,13 +10172,13 @@
         <v>26</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
@@ -10192,22 +10196,22 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>23</v>
@@ -10219,22 +10223,22 @@
         <v>26</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
@@ -10252,28 +10256,28 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>26</v>
@@ -10288,13 +10292,13 @@
         <v>26</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
@@ -10312,28 +10316,28 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>26</v>
@@ -10348,13 +10352,13 @@
         <v>26</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
@@ -10372,22 +10376,22 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>23</v>
@@ -10399,22 +10403,22 @@
         <v>26</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
@@ -10432,22 +10436,22 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>23</v>
@@ -10462,19 +10466,19 @@
         <v>26</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
@@ -10492,19 +10496,19 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>26</v>
@@ -10522,19 +10526,19 @@
         <v>26</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -10552,22 +10556,22 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>23</v>
@@ -10579,22 +10583,22 @@
         <v>26</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
@@ -10612,22 +10616,22 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>23</v>
@@ -10636,25 +10640,25 @@
         <v>26</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -10672,22 +10676,22 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>23</v>
@@ -10699,22 +10703,22 @@
         <v>26</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
@@ -10732,19 +10736,19 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>26</v>
@@ -10759,22 +10763,22 @@
         <v>26</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
@@ -10792,28 +10796,28 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>26</v>
@@ -10822,19 +10826,19 @@
         <v>26</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
@@ -10852,22 +10856,22 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>23</v>
@@ -10879,22 +10883,22 @@
         <v>26</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
@@ -10912,22 +10916,22 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>23</v>
@@ -10939,22 +10943,22 @@
         <v>26</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
@@ -10972,28 +10976,28 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>26</v>
@@ -11008,13 +11012,13 @@
         <v>26</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
@@ -11032,19 +11036,19 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>26</v>
@@ -11059,22 +11063,22 @@
         <v>26</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
@@ -11092,25 +11096,25 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>26</v>
@@ -11119,22 +11123,22 @@
         <v>26</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
@@ -11152,28 +11156,28 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>26</v>
@@ -11182,19 +11186,19 @@
         <v>26</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
@@ -11212,19 +11216,19 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>26</v>
@@ -11233,7 +11237,7 @@
         <v>23</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>26</v>
@@ -11242,19 +11246,19 @@
         <v>26</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
@@ -11272,22 +11276,22 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>23</v>
@@ -11302,19 +11306,19 @@
         <v>26</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
@@ -11332,28 +11336,28 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>26</v>
@@ -11362,19 +11366,19 @@
         <v>26</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
@@ -11392,28 +11396,28 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>26</v>
@@ -11422,19 +11426,19 @@
         <v>26</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
@@ -11452,28 +11456,28 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>26</v>
@@ -11482,19 +11486,19 @@
         <v>26</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
@@ -11512,28 +11516,28 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G117" s="10" t="s">
+      <c r="G117" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>26</v>
@@ -11548,13 +11552,13 @@
         <v>26</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
@@ -11572,22 +11576,22 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>23</v>
@@ -11599,22 +11603,22 @@
         <v>26</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
@@ -11632,28 +11636,28 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>26</v>
@@ -11662,19 +11666,19 @@
         <v>26</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
@@ -11692,22 +11696,22 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>23</v>
@@ -11716,25 +11720,25 @@
         <v>26</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
@@ -11752,28 +11756,28 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>26</v>
@@ -11782,19 +11786,19 @@
         <v>26</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
@@ -11812,22 +11816,22 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>23</v>
@@ -11836,25 +11840,25 @@
         <v>26</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
@@ -11872,49 +11876,49 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
@@ -11932,28 +11936,28 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>26</v>
@@ -11962,19 +11966,19 @@
         <v>26</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
@@ -11992,22 +11996,22 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>23</v>
@@ -12022,19 +12026,19 @@
         <v>26</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
@@ -12052,22 +12056,22 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>23</v>
@@ -12079,22 +12083,22 @@
         <v>26</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
@@ -12112,22 +12116,22 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>23</v>
@@ -12136,7 +12140,7 @@
         <v>26</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>26</v>
@@ -12148,13 +12152,13 @@
         <v>26</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
@@ -12172,49 +12176,49 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
@@ -12232,49 +12236,49 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
@@ -12292,49 +12296,49 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G130" s="10" t="s">
+      <c r="G130" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
@@ -12352,22 +12356,22 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>23</v>
@@ -12382,19 +12386,19 @@
         <v>26</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
@@ -12412,28 +12416,28 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>26</v>
@@ -12442,19 +12446,19 @@
         <v>26</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
@@ -12472,28 +12476,28 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>26</v>
@@ -12502,19 +12506,19 @@
         <v>26</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
@@ -12532,22 +12536,22 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>23</v>
@@ -12559,22 +12563,22 @@
         <v>26</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
@@ -12592,28 +12596,28 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>26</v>
@@ -12622,19 +12626,19 @@
         <v>26</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
@@ -12652,22 +12656,22 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>23</v>
@@ -12682,19 +12686,19 @@
         <v>26</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
@@ -12712,49 +12716,49 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
@@ -12772,49 +12776,49 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
@@ -12832,46 +12836,46 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>26</v>
@@ -12892,22 +12896,22 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>23</v>
@@ -12919,22 +12923,22 @@
         <v>26</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
@@ -12952,22 +12956,22 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>23</v>
@@ -12979,22 +12983,22 @@
         <v>26</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
@@ -13012,49 +13016,49 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>

--- a/tabelle_1_main.xlsx
+++ b/tabelle_1_main.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1600">
   <si>
     <t>phrasem_id</t>
   </si>
@@ -291,7 +291,7 @@
     <t>Während des Meetings hat er wieder einen Witz aus dem Ärmel geschüttelt, um die Stimmung zu heben.</t>
   </si>
   <si>
-    <t>etw. aus der Hand schütteln; zaubern; etw. aus dem Handgelenk schütteln; zaubern; hat; aus dem Ärmel geschüttelt; aus dem Ärmel schütteln</t>
+    <t>etw. aus der Hand schütteln; zaubern; etw. aus dem Handgelenk schütteln; zaubern; hat; aus dem Ärmel geschüttelt; aus dem Ärmel schütteln; etw. aus der Hand schütteln / zaubern, etw. aus dem Handgelenk schütteln /;  zaubern</t>
   </si>
   <si>
     <t>ph00005</t>
@@ -430,7 +430,7 @@
     <t>Heute war ich schlecht vorbereitet bei der Prüfung, aber ich hoffe, dass mein Lehrer ein Auge zudrückt.</t>
   </si>
   <si>
-    <t>ein Auge; zudrücken; drücke, zu; zudrückt</t>
+    <t>ein Auge; zudrücken; drücke, zu; zudrückt; beide Augen zudrücken</t>
   </si>
   <si>
     <t>ph00009</t>
@@ -544,7 +544,7 @@
     <t>Vor dem Zahnarzttermin hatte ich richtig Schiss.</t>
   </si>
   <si>
-    <t>habe; Bammel; hat; hatte; Schiss</t>
+    <t xml:space="preserve">habe; Bammel; hat; hatte; Schiss; Schiss haben </t>
   </si>
   <si>
     <t>ph00012</t>
@@ -580,7 +580,7 @@
     <t>Die Umweltschützer gehen auf die Barrikaden gegen den Bau der neuen Autobahn.</t>
   </si>
   <si>
-    <t xml:space="preserve">auf die Barrikaden; gehen; gingen; </t>
+    <t xml:space="preserve">auf die Barrikaden; gehen; gingen; Barrikade </t>
   </si>
   <si>
     <t>ph00013</t>
@@ -655,7 +655,7 @@
     <t>Wir haben blau gemacht, weil wir müde waren und uns ausruhen wollten.</t>
   </si>
   <si>
-    <t>blau; machen; mache; hat; gemacht; machst; haben;</t>
+    <t>blau; machen; mache; hat; gemacht; machst; haben; blauen Montag machen; Montag;</t>
   </si>
   <si>
     <t>ph00015</t>
@@ -697,7 +697,7 @@
     <t>Nach der Party war er total blau und konnte kaum laufen.</t>
   </si>
   <si>
-    <t xml:space="preserve">blau; sein; warst; war; </t>
+    <t>blau; sein; warst; war; blau vor den Augen werden</t>
   </si>
   <si>
     <t>ph00016</t>
@@ -772,7 +772,7 @@
     <t>Nach dem schweren Niederlage waren alle Spieler am Boden zerstört.</t>
   </si>
   <si>
-    <t xml:space="preserve">am Boden; zerstört; sein; war; ist; waren; </t>
+    <t>am Boden; zerstört; sein; war; ist; waren; den Boden unter den Füßen verlieren</t>
   </si>
   <si>
     <t>ph00018</t>
@@ -811,7 +811,7 @@
     <t>Obwohl wir aus verschiedenen Abteilungen kommen, sitzen wir bei diesem Projekt im gleichen Boot.</t>
   </si>
   <si>
-    <t xml:space="preserve">im; gleichen; einem; Boot; sitzen; </t>
+    <t>im; gleichen; einem; Boot; sitzen; to be in the same boat;</t>
   </si>
   <si>
     <t>ph00019</t>
@@ -844,7 +844,7 @@
     <t>Du redest ständig um den heißen Brei herum, anstatt einfach zuzugeben, dass du einen Fehler gemacht hast.</t>
   </si>
   <si>
-    <t>um den heißen Brei; reden; redest; herum</t>
+    <t>um den heißen Brei; reden; redest; herum; wie die Katze um den heißen Brei schleichen</t>
   </si>
   <si>
     <t>ph00020</t>
@@ -1015,7 +1015,7 @@
     <t>Auch wenn es schwierig wird, bleibt sie guter Dinge und kämpft weiter.</t>
   </si>
   <si>
-    <t>guter Dinge; sein; ist; bin; bleibt</t>
+    <t>guter Dinge; sein; ist; bin; bleibt; aller guten Dinge sind; gute Dinge sein</t>
   </si>
   <si>
     <t>ph00025</t>
@@ -1459,7 +1459,7 @@
     <t xml:space="preserve">Bist du mit der Präsentation fertig? - Ja, alles im grünen Bereich, ich habe alles gut vorbereitet. </t>
   </si>
   <si>
-    <t xml:space="preserve">alles im grünen Bereich; sein; ist; </t>
+    <t xml:space="preserve">alles im grünen Bereich; sein; ist; Alles in einem grünen Bereich; Alles ist grüner Bereich </t>
   </si>
   <si>
     <t>ph00038</t>
@@ -1498,7 +1498,7 @@
     <t>Ich bekomme immer einen Kloß im Hals, wenn ich an meine Kindheit denke.</t>
   </si>
   <si>
-    <t>einen Kloß im Hals; haben; hatte; bekomme</t>
+    <t xml:space="preserve">einen Kloß im Hals; haben; hatte; bekomme; Knödel; Kloß; Knödeltenor </t>
   </si>
   <si>
     <t>ph00039</t>
@@ -1561,7 +1561,7 @@
     <t>Ich könnte aus der Haut fahren, wenn mein Auto schon wieder kaputt ist.</t>
   </si>
   <si>
-    <t xml:space="preserve">aus der Haut; fahren; bin; gefahren; fährt; </t>
+    <t>aus der Haut; fahren; bin; gefahren; fährt; Nicht aus seiner Haut können</t>
   </si>
   <si>
     <t>ph00041</t>
@@ -1999,7 +1999,7 @@
     <t>Er war lange auf dem Holzweg, bevor er die richtige Lösung fand.</t>
   </si>
   <si>
-    <t xml:space="preserve">auf dem Holzweg; sein; war; bist; ist; </t>
+    <t>auf dem Holzweg; sein; war; bist; ist; "Holzweg";</t>
   </si>
   <si>
     <t>ph00055</t>
@@ -2242,7 +2242,7 @@
     <t>In dem Krimi wollte der Angeklagte eine Zeugin kalt machen.</t>
   </si>
   <si>
-    <t xml:space="preserve">kalt; machen; macht; </t>
+    <t>kalt; machen; macht; “kalt”;</t>
   </si>
   <si>
     <t>ph00062</t>
@@ -2275,7 +2275,7 @@
     <t>Wir dürfen jetzt nicht alle Mitarbeiter über einen Kamm scheren! Wir müssen unterscheiden zwischen denen, die sich um eine Lösung bemüht haben, und denen, die kein Interesse gezeigt haben.</t>
   </si>
   <si>
-    <t xml:space="preserve">über einen Kamm; scheren; </t>
+    <t>über einen Kamm; scheren; Bader;</t>
   </si>
   <si>
     <t>ph00063</t>
@@ -2338,7 +2338,7 @@
     <t>Heute bin ich total verkatert , denn gestern habe ich meinen Geburtstag gefeiert.</t>
   </si>
   <si>
-    <t>einen Kater; haben; hatte; Katers; bin; verkatert</t>
+    <t>einen Kater; haben; hatte; Katers; bin; verkatert; sein</t>
   </si>
   <si>
     <t>ph00065</t>
@@ -2371,7 +2371,7 @@
     <t>Nun lässt die Regierung die Katze aus dem Sack: Energiepreise werden deutlich teurer als bisher angenommen.</t>
   </si>
   <si>
-    <t xml:space="preserve">die Katze aus dem Sack; lassen; ist; los; Katze, lässt; </t>
+    <t>die Katze aus dem Sack; lassen; ist; los; Katze, lässt; die Katze im Sack lassen</t>
   </si>
   <si>
     <t>ph00066</t>
@@ -2464,7 +2464,7 @@
     <t>Deine Diskussionen gehen mir auf die Nerven. Halt einfach mal die Klappe!</t>
   </si>
   <si>
-    <t xml:space="preserve">die Klappe; halten; halt; </t>
+    <t>die Klappe; halten; halt; Klappe;</t>
   </si>
   <si>
     <t>ph00069</t>
@@ -2617,7 +2617,7 @@
     <t>Nach mehreren Dates hat sie ihm schließlich einen Korb gegeben, weil die Chemie einfach nicht stimmte.</t>
   </si>
   <si>
-    <t>einen Korb; geben; haben; gegeben; gibt; hat;</t>
+    <t>einen Korb; geben; haben; gegeben; gibt; hat; bekommen;</t>
   </si>
   <si>
     <t>ph00074</t>
@@ -2710,7 +2710,7 @@
     <t>Ein Betriebsausflug hält die Mitarbeiter bei Laune.</t>
   </si>
   <si>
-    <t>bei Laune; halten; hält</t>
+    <t>bei; Laune; halten; hält; Luna</t>
   </si>
   <si>
     <t>ph00077</t>
@@ -2770,7 +2770,7 @@
     <t>Irgendwann muss auch jeder den Löffel abgeben.</t>
   </si>
   <si>
-    <t xml:space="preserve">den Löffel; abgeben; abgegeben; hat; </t>
+    <t>den Löffel; abgeben; abgegeben; hat; Löffel;</t>
   </si>
   <si>
     <t>ph00079</t>
@@ -2941,7 +2941,7 @@
     <t>Sie ist vernarrt in ihren neuen Hund und redet nur noch von ihm.</t>
   </si>
   <si>
-    <t>einen Narren; an; gefressen; haben; hast; hat; ist vernarrt in;</t>
+    <t>einen Narren; an; gefressen; haben; hast; hat; ist vernarrt in; vernarrt in jmdn. / etw. sein;</t>
   </si>
   <si>
     <t>ph00084</t>
@@ -3040,7 +3040,7 @@
     <t>Nach stundenlangem Stau lagen bei den Fahrern die Nerven blank, viele hupten und schimpften.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nerven; liegen; blank; lagen; die Nerven; </t>
+    <t>Nerven; liegen; blank; lagen; die Nerven; behalten;</t>
   </si>
   <si>
     <t>ph00087</t>
@@ -3142,7 +3142,7 @@
     <t>Beruhig dich ein bisschen! Komm wieder von der Palme herunter.</t>
   </si>
   <si>
-    <t xml:space="preserve">auf die Palme; bringen; bringt; komm; von der Palme; herunter; </t>
+    <t>auf die Palme; bringen; bringt; komm; von der Palme; herunter; von der Palme wieder herunterkommen;</t>
   </si>
   <si>
     <t>ph00090</t>
@@ -3409,7 +3409,7 @@
     <t>Sie blieb viel zu lange in der Beziehung, obwohl alle Anzeichen zeigten, dass sie nicht mehr funktionierte. Sie hat das tote Pferd geritten, anstatt loszulassen und weiterzugehen.</t>
   </si>
   <si>
-    <t>ein totes Pferd; reiten; wird; hat; geritten</t>
+    <t>ein totes Pferd; reiten; wird; hat; geritten; riding a dead horse</t>
   </si>
   <si>
     <t>ph00098</t>
@@ -3670,7 +3670,7 @@
     <t>Anstatt mit uns zu reden, schmort er lieber allein in seinem eigenen Saft.</t>
   </si>
   <si>
-    <t>im; in; eigenen Saft; schmoren; wirst; schmore; schmort</t>
+    <t>im; in; eigenen Saft; schmoren; wirst; schmore; schmort; jmdn. im eigenen Saft schmoren lassen</t>
   </si>
   <si>
     <t>ph00106</t>
@@ -3766,7 +3766,7 @@
     <t>Er war das schwarze Schaf in der Schule, der immer Ärger machte und sich nicht an die Regeln hielt</t>
   </si>
   <si>
-    <t>schwarzes; das schwarze; Schaf; sein; ist; war</t>
+    <t>schwarzes; das schwarze; Schaf; sein; ist; war; Sündenbock sein, Buhmann sein</t>
   </si>
   <si>
     <t>ph00109</t>
@@ -3868,7 +3868,7 @@
     <t>Du hast das ganze Wochenende nur gelesen? Was bist du denn für eine Schlaftablette?</t>
   </si>
   <si>
-    <t xml:space="preserve">eine; Schlaftablette; sein; ist; Schlaftabletten; sind; </t>
+    <t>eine; Schlaftablette; sein; ist; Schlaftabletten; sind; dröge sein;</t>
   </si>
   <si>
     <t>ph00112</t>
@@ -3964,7 +3964,7 @@
     <t>Wieder so eine olle Kamelle, die jeder kennt und niemand mehr hören will!</t>
   </si>
   <si>
-    <t>Scnhee von gestern; olle Kamelle</t>
+    <t>Scnhee von gestern; olle Kamelle; kalter Kaffee</t>
   </si>
   <si>
     <t>ph00115</t>
@@ -4070,6 +4070,9 @@
     <t>Für das neue Projekt hat kein Schwein Interesse gezeigt.</t>
   </si>
   <si>
+    <t>kein; armes; Schwein</t>
+  </si>
+  <si>
     <t>ph00118</t>
   </si>
   <si>
@@ -4100,7 +4103,7 @@
     <t>Wir hatten wirklich Schwein, dass die Prüfung heute ausgefallen ist und erst nächste Woche stattfindet.</t>
   </si>
   <si>
-    <t>Schwein; haben; gehabt; hatten</t>
+    <t>Schwein; haben; gehabt; hatten; Sau; Schützenfeste;</t>
   </si>
   <si>
     <t>ph00119</t>
@@ -4202,7 +4205,7 @@
     <t>Der psychische Druck während der Prüfungsphase geht vielen Studierenden an die Substanz.</t>
   </si>
   <si>
-    <t xml:space="preserve">an die Substanz; gehen; ging; geht; </t>
+    <t xml:space="preserve">an die; Substanz; gehen; ging; geht; </t>
   </si>
   <si>
     <t>ph00122</t>
@@ -4295,7 +4298,7 @@
     <t xml:space="preserve">Unser Nachbar macht jeden Tag um Mitternacht Lärm in der Garage. Der hat eindeutig nicht alle Tassen im Schrank! </t>
   </si>
   <si>
-    <t xml:space="preserve">nicht alle Tassen im Schrank; haben; hat; habt; </t>
+    <t>nicht alle Tassen im Schrank; haben; hat; habt; eine Macke haben; einen Dachschaden haben; eine Schraube locker haben; nicht alle Latten am Zaun haben; nicht ganz dicht sein;</t>
   </si>
   <si>
     <t>ph00125</t>
@@ -4454,7 +4457,7 @@
     <t>Bei dieser Kälte noch Eis essen? Hast du einen Vogel?</t>
   </si>
   <si>
-    <t>einen Vogel; haben, hat; hast; zeigen; zeigte</t>
+    <t>einen Vogel; haben, hat; hast; zeigen; zeigte; jmdm. einen Vogel zeigen</t>
   </si>
   <si>
     <t>ph00130</t>
@@ -4487,7 +4490,7 @@
     <t>Du hast doch einen an der Waffel, so etwas macht man nicht.</t>
   </si>
   <si>
-    <t xml:space="preserve">einen an der Waffel; haben; hast; </t>
+    <t>einen an der; Waffel; haben; hast; waffeln; waffle</t>
   </si>
   <si>
     <t>ph00131</t>
@@ -4547,7 +4550,7 @@
     <t>Manchmal muss man einfach mutig sein und ins kalte Wasser springen – sonst entwickelt man sich nicht weiter.</t>
   </si>
   <si>
-    <t xml:space="preserve">ins kalte Wasser; springen; </t>
+    <t>ins kalte Wasser; springen; jmdn. ins kalte Wasser werfen/schmeißen;</t>
   </si>
   <si>
     <t>ph00133</t>
@@ -4580,7 +4583,7 @@
     <t>Der Lehrer hat beim Abschied fast geweint – er ist eben nah am Wasser gebaut.</t>
   </si>
   <si>
-    <t>nah am Wasser; gebaut; sein; bin; war; ist;</t>
+    <t xml:space="preserve">nah am Wasser; gebaut; sein; bin; war; ist; Heulsuse; </t>
   </si>
   <si>
     <t>ph00134</t>
@@ -4775,7 +4778,7 @@
     <t>So kann ich nicht ins Restaurant gehen – ich sehe aus wie durch den Fleischwolf gedreht.</t>
   </si>
   <si>
-    <t xml:space="preserve">sich; fühlen; wie durch den Wolf; gedreht; fühle; mich; </t>
+    <t>sich; fühlen; wie durch den Wolf; gedreht; fühle; mich; durch den; Fleischwolf</t>
   </si>
   <si>
     <t>ph00140</t>
@@ -4868,7 +4871,7 @@
     <t>Wir müssen uns alle ins Zeug legen, wenn wir die Deadline einhalten wollen.</t>
   </si>
   <si>
-    <t>sich; für; ins Zeug; legen; dich; uns</t>
+    <t>sich; für; ins Zeug; legen; dich; uns; sich für jmdn. ins Zeug legen</t>
   </si>
 </sst>
 </file>
@@ -12920,7 +12923,7 @@
       </c>
       <c r="R117" s="1"/>
       <c r="S117" s="1" t="s">
-        <v>1323</v>
+        <v>1332</v>
       </c>
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
@@ -12937,22 +12940,22 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>26</v>
@@ -12964,28 +12967,28 @@
         <v>29</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
@@ -13002,28 +13005,28 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>29</v>
@@ -13032,27 +13035,27 @@
         <v>29</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
@@ -13069,19 +13072,19 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>523</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>263</v>
@@ -13099,27 +13102,27 @@
         <v>29</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
@@ -13136,13 +13139,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>884</v>
@@ -13151,13 +13154,13 @@
         <v>884</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>29</v>
@@ -13166,27 +13169,27 @@
         <v>29</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
@@ -13203,19 +13206,19 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>319</v>
@@ -13230,28 +13233,28 @@
         <v>562</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
@@ -13268,13 +13271,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>174</v>
@@ -13289,34 +13292,34 @@
         <v>26</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
@@ -13333,16 +13336,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>176</v>
@@ -13354,7 +13357,7 @@
         <v>26</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>29</v>
@@ -13363,25 +13366,25 @@
         <v>29</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
@@ -13398,19 +13401,19 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>174</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>636</v>
@@ -13428,27 +13431,27 @@
         <v>29</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
@@ -13465,22 +13468,22 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>26</v>
@@ -13492,28 +13495,28 @@
         <v>29</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
@@ -13530,19 +13533,19 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>623</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>319</v>
@@ -13566,21 +13569,21 @@
         <v>29</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
@@ -13597,13 +13600,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>623</v>
@@ -13618,7 +13621,7 @@
         <v>26</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>551</v>
@@ -13627,29 +13630,29 @@
         <v>29</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="R128" s="1"/>
       <c r="S128" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
@@ -13666,19 +13669,19 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>613</v>
@@ -13687,36 +13690,36 @@
         <v>26</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
@@ -13733,19 +13736,19 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>29</v>
@@ -13754,34 +13757,34 @@
         <v>26</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
@@ -13798,22 +13801,22 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>862</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>26</v>
@@ -13828,25 +13831,25 @@
         <v>29</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
@@ -13863,19 +13866,19 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>365</v>
@@ -13884,7 +13887,7 @@
         <v>26</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>29</v>
@@ -13893,25 +13896,25 @@
         <v>29</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
@@ -13928,19 +13931,19 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>263</v>
@@ -13949,7 +13952,7 @@
         <v>26</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>29</v>
@@ -13958,25 +13961,25 @@
         <v>29</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
@@ -13993,13 +13996,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>163</v>
@@ -14020,28 +14023,28 @@
         <v>29</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
@@ -14058,19 +14061,19 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>399</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>560</v>
@@ -14079,7 +14082,7 @@
         <v>26</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>29</v>
@@ -14088,25 +14091,25 @@
         <v>29</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
@@ -14123,16 +14126,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>961</v>
@@ -14153,27 +14156,27 @@
         <v>29</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
@@ -14190,28 +14193,28 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>884</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>551</v>
@@ -14220,27 +14223,27 @@
         <v>29</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
@@ -14257,28 +14260,28 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>551</v>
@@ -14287,27 +14290,27 @@
         <v>29</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
@@ -14324,19 +14327,19 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>884</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>200</v>
@@ -14345,25 +14348,25 @@
         <v>26</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>29</v>
@@ -14372,7 +14375,7 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
@@ -14389,13 +14392,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>623</v>
@@ -14419,29 +14422,29 @@
         <v>625</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="R140" s="1"/>
       <c r="S140" s="1" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
@@ -14458,13 +14461,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>904</v>
@@ -14473,7 +14476,7 @@
         <v>905</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>26</v>
@@ -14485,28 +14488,28 @@
         <v>29</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
@@ -14523,19 +14526,19 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>355</v>
@@ -14544,7 +14547,7 @@
         <v>26</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>551</v>
@@ -14553,25 +14556,25 @@
         <v>29</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>

--- a/tabelle_1_main.xlsx
+++ b/tabelle_1_main.xlsx
@@ -174,7 +174,7 @@
     <t>auf; abfahren; abgefahren; fährt; ab; etw. ist abgefahren</t>
   </si>
   <si>
-    <t xml:space="preserve">15.02.2026: alle Beispiele hinzugefügt und kursiv markiert </t>
+    <t>15.02.2026_2130: alle Beispiele hinzugefügt, kursiv und grau markiert</t>
   </si>
   <si>
     <t>ph00002</t>
@@ -198,7 +198,7 @@
     <t>Ихэвчлэн эгэх төлөөний үгтэй (Refl.) хэрэглэнэ</t>
   </si>
   <si>
-    <t>онигоонд орох, хөгөө чирэх, шараа болох</t>
+    <t>онигоонд орох; хөгөө чирэх; шараа болох</t>
   </si>
   <si>
     <t>Mach dich nicht zum Affen und benimm dich einfach normal.</t>
@@ -234,7 +234,7 @@
     <t>Spaß machen, jmdn. verarschen, jmdn. veräppeln мөн адил утгатай.</t>
   </si>
   <si>
-    <t>хэн нэгнийг явуулах, цаашлуулах, тоглоом тохуу хийх</t>
+    <t>хэн нэгнийг явуулах; цаашлуулах; тоглоом тохуу хийх</t>
   </si>
   <si>
     <t>So viel Geld für Kleidung ausgegeben!? Willst du mich auf den Arm nehmen?</t>
@@ -279,7 +279,7 @@
     <t>Дундад зуунд өргөн ханцуйтай хувцас моод байсан бөгөөд илбэчид үзүүлбэртээ ханцуйнаасаа гэнэт төрөл бүрийн зүйл гаргаж ирдэг байснаас  үүсэлтэй.</t>
   </si>
   <si>
-    <t>нүд ирмэх зуур, алга хөрвүүлэхийн хооронд, etw. aus der Hand schütteln / zaubern, etw. aus dem Handgelenk schütteln / zaubern</t>
+    <t>нүд ирмэх зуур; алга хөрвүүлэхийн хооронд; etw. aus der Hand schütteln / zaubern; etw. aus dem Handgelenk schütteln / zaubern</t>
   </si>
   <si>
     <t>Bei der Besprechung hat er plötzlich eine brillante Idee aus dem Ärmel geschüttelt.</t>
@@ -316,7 +316,7 @@
     <t>Хүн хэхрэхэд таагүй, гашуун мэдрэмж буюу цээж хорсож байгаатай адилтгасан зүйрлэл.</t>
   </si>
   <si>
-    <t>дургүй хүрэх, зэвүүцэх, übel aufstoßen</t>
+    <t>дургүй хүрэх; зэвүүцэх; übel aufstoßen</t>
   </si>
   <si>
     <t>Es stößt mir sauer auf, dass er nie seine Versprechen hält.</t>
@@ -391,7 +391,7 @@
     <t>Хэн нэгэнд таалагдах зорилготой учраас өгөх оршихын тийн ялгалд (Dat.) байгаа эзэн биеийг заавал дурьдна.</t>
   </si>
   <si>
-    <t>хэн нэгэнд хандрах, харц чулуудах</t>
+    <t>хэн нэгэнд хандрах; харц чулуудах</t>
   </si>
   <si>
     <t>Hör auf, Lisa schöne Augen zu machen, du hast doch eine Freundin!</t>
@@ -529,7 +529,7 @@
     <t>Schiss haben гэх хэлцтэй утгын хувьд адил боловч хэрэглээний хувьд ялгаатай. Schiss haben гэдэг нь илүү хүчтэй айдас илэрхийлэх бол Bammel haben нь утгын хувьд хүч султайгаас гадна ихэвчилэн нөхцөл байдлаас үүдсэн тодорхой бус айдсыг илэрхийлнэ.</t>
   </si>
   <si>
-    <t>зүрх үхэх, зүрхлэхгүй байх</t>
+    <t>зүрх үхэх; зүрхлэхгүй байх</t>
   </si>
   <si>
     <t>Ich habe Bammel, in den Keller zu gehen.</t>
@@ -568,7 +568,7 @@
     <t>Barrikade гэдэг нь франц гаралтай үг бөгөөд 18-р зууны Францын хувьсгалын үеэр ард түмэн хаант засаглалын эсрэг босохдоо хаалт, хамгаалалт барьж эсэргүүцэж байснаас үүдэлтэй.</t>
   </si>
   <si>
-    <t>бослого гаргах, эсэргүүцэн тэмцэх</t>
+    <t>бослого гаргах; эсэргүүцэн тэмцэх</t>
   </si>
   <si>
     <t>Die Bürger gingen auf die Barrikaden, als die Regierung die Steuern erhöhte.</t>
@@ -604,7 +604,7 @@
     <t>Дундад зуунд театрын жүжигчид тоглолт дээрээ ёс бус, садар самуун утгатай үг болон хориотой зүйлийн талаар ярихдаа болгоомжилон, танигдахгүйн тулд амныхаа урд цаас эсвэл даавуу барьдаг байжээ.</t>
   </si>
   <si>
-    <t>улаан хэлтнийг урдуураа өнгөрөөхгүй, нүүрэн дээр нь хэлэх</t>
+    <t>улаан хэлтнийг урдуураа өнгөрөөхгүй; нүүрэн дээр нь хэлэх</t>
   </si>
   <si>
     <t>Sie nimmt kein Blatt vor den Mund, sie sagt immer, was sie denkt.</t>
@@ -679,7 +679,7 @@
     <t>blau vor den Augen werden хэлцтэй холбоотой. Энэ нь толгой эргэж, дайвалзах, нүд бүрэлзэх гэсэн утгатай.</t>
   </si>
   <si>
-    <t xml:space="preserve">хөлчүү байх, хөлчүүрхэх, мал болтлоо согтох, тасрах, нохой дөрөв харагдах </t>
+    <t xml:space="preserve">хөлчүү байх; хөлчүүрхэх; мал болтлоо согтох; тасрах; нохой дөрөв харагдах </t>
   </si>
   <si>
     <t>Du warst gestern Abend ganz schön blau. Kannst du dich überhaupt noch an etwas erinnern?</t>
@@ -754,7 +754,7 @@
     <t>den Boden unter den Füßen verlieren гэх хэлцтэй утгын хувьд адил.  Монгол хэлний хөл алдах гэдэг хэлцтэй андуурч болохгүй.</t>
   </si>
   <si>
-    <t>хөл доорх газар цөмрөх, сэтгэлээр унах, элэг эмтрэх</t>
+    <t>хөл доорх газар цөмрөх; сэтгэлээр унах; элэг эмтрэх</t>
   </si>
   <si>
     <t>Nachdem er seine Frau verloren hat, war er am Boden zerstört.</t>
@@ -796,7 +796,7 @@
     <t>20-р зууны дунд үед англи хэлнээс орж ирсэн to be in the same boat хэллэгийн утгачилсан орчуулга бөгөөд далайчид нэг завинд нэг л хувь тавилан хуваалцдаг амьдралаас үүдэлтэй.</t>
   </si>
   <si>
-    <t>im selben Boot sitzen, in einem Boot sitzen, зовлон нэгтэй байх</t>
+    <t>im selben Boot sitzen; in einem Boot sitzen; зовлон нэгтэй байх</t>
   </si>
   <si>
     <t>Die Schüler im letzten Jahrgang sitzen im gleichen Boot – alle müssen die Abschlussprüfung bestehen.</t>
@@ -832,7 +832,7 @@
     <t>wie die Katze um den heißen Brei schleichen гэсэн хуучны хэлцээс гаралтай. Муур халуун зутан идэж чадахгүй тойрон гэтэх үйлтэй зүйрлэсэн хэлц үг.</t>
   </si>
   <si>
-    <t>зайлсхийх, тойруулж ярих, дүлэгнэх</t>
+    <t>зайлсхийх; тойруулж ярих; дүлэгнэх</t>
   </si>
   <si>
     <t>Hör auf, immer um den heißen Brei zu reden, sag mir endlich, was du wirklich denkst!</t>
@@ -862,7 +862,7 @@
     <t>Emotion</t>
   </si>
   <si>
-    <t>уураа гаргах, бухимдлаа тайлах</t>
+    <t>уураа гаргах; бухимдлаа тайлах</t>
   </si>
   <si>
     <t>Nach dem Streit ging sie zum Fitness-Studio, um endlich Dampf abzulassen.</t>
@@ -871,7 +871,7 @@
     <t>Wenn du Dampf ablassen musst, ruf mich an – ich höre dir zu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Damof; ablassen; abzulassen; </t>
+    <t xml:space="preserve">Dampf; ablassen; abzulassen; </t>
   </si>
   <si>
     <t>ph00021</t>
@@ -898,7 +898,7 @@
     <t>Эртний Ромчууд гладиаторуудын амь насыг шийдэх өршөөлийн дохиог эрхий хуруугаар илэрхийлдэг байжээ. Гладиатор тулаанд ялагдвал долоовор хуруугаа өргөн үзэгчдээс өршөөл хүсдэг байсан бөгөөд тэд гладиаторын үхлийг хүсвэл гараа сунган эрхий хуруугаа гозойлгон харин түүний амь насыг өршөөх дохио нь эрхий хуруугаа нууж гараа зангидах байв.</t>
   </si>
   <si>
-    <t>амжилт!, toi toi toi, jmdm. ganz fest die Daumen gedrückt, jmdm. alle Daumen drücken</t>
+    <t>амжилт!; toi toi toi; jmdm. ganz fest die Daumen gedrückt; jmdm. alle Daumen drücken</t>
   </si>
   <si>
     <t>Ich habe dir ganz fest die Daumen gedrückt, dass du das Vorstellungsgespräch bestehst.</t>
@@ -913,7 +913,7 @@
     <t>Ich drücke dir die Daumen für dein neues Projekt. Viel Erfolg!</t>
   </si>
   <si>
-    <t xml:space="preserve">die Daumen; drücken; habe; gedrückt; drücke; </t>
+    <t xml:space="preserve">die Daumen; alle Daumen; drücken; habe; gedrückt; drücke; </t>
   </si>
   <si>
     <t>ph00022</t>
@@ -925,7 +925,7 @@
     <t>дүрсхийн уурлах, огцом уурлах, түргэн зан гаргах</t>
   </si>
   <si>
-    <t>sehr schnell an die Decke gehen, тэсрэх, зүрхний хийтэй, боож үхэхээ шахах</t>
+    <t>sehr schnell an die Decke gehen; тэсрэх, зүрхний хийтэй; боож үхэхээ шахах</t>
   </si>
   <si>
     <t>Wenn du ihn provozierst, geht er an die Decke.</t>
@@ -1033,7 +1033,7 @@
     <t>Хэн нэгнийг эсвэл ямар нэгэн зүйлийг ямар ч болзолгүйгээр эрхэмлэн дээдэлж, өөрийн амьдралд чухал байр суурь эзэлж байгааг илэрхийлдэг.</t>
   </si>
   <si>
-    <t>амь, амьдрал байх</t>
+    <t>амь; амьдрал байх</t>
   </si>
   <si>
     <t>Meine Tochter ist mein Ein und Alles.</t>
@@ -1174,7 +1174,7 @@
     <t>Leichtsinn</t>
   </si>
   <si>
-    <t>галаар тоглох, үхлээ эрсэн оготно, муурын сахлаар оролдоно</t>
+    <t>галаар тоглох; үхлээ эрсэн оготно; муурын сахлаар оролдоно</t>
   </si>
   <si>
     <t>Wer so viele Kredite hat, spielt mit dem Feuer und riskiert finanzielle Probleme.</t>
@@ -1210,7 +1210,7 @@
     <t>Найз нөхөд, дотны хүмүүс дундаа хэрэглэхэд илүү тохиромжтой.</t>
   </si>
   <si>
-    <t>кадр тасрах, тас үсрэх, тасрах</t>
+    <t>кадр тасрах; тас үсрэх; тасрах</t>
   </si>
   <si>
     <t>Ich war gestern total betrunken und kann mich nur bruchstückhaft erinnern, was ich gemacht habe. Ich habe total den Filmriss!</t>
@@ -1222,7 +1222,7 @@
     <t>Nach dem Unfall hatte ich einen Filmriss, ich kann mich nicht erinnern, was passiert ist.</t>
   </si>
   <si>
-    <t>einen Filmriss; den Filmriss; haben; habe; hatte</t>
+    <t>einen Filmriss; den Filmriss; haben; habe total; hatte</t>
   </si>
   <si>
     <t>ph00031</t>
@@ -1246,7 +1246,7 @@
     <t>Анчид байгаа оноогүй үедээ уурлан буугаа чулуудах нь нэгэнт зорилгодоо хүрч чадахгүй гэдгээ хүлээн зөвшөөрч, шантрахыг илтгэдэг байжээ.</t>
   </si>
   <si>
-    <t>бууж өгөх, шантрах</t>
+    <t>бууж өгөх; шантрах</t>
   </si>
   <si>
     <t>Er hat die Flinte ins Korn geworfen und wollte sein Studium abbrechen, weil er die Prüfung nicht bestanden hat.</t>
@@ -1273,7 +1273,7 @@
     <t>Маш их баярлаж байгаа байдал илт харагдах. Энэхүү хэллэг нь ихэвчлэн спорт, тэмцээн, шалгалтад амжилт гарсан эсвэл бэлэг авах, гэнэтийн сайхан зүйл тохиолдсон үед ашиглагддаг.</t>
   </si>
   <si>
-    <t>хөл газар хүрэхгүй баярлах, магнай тэнийх</t>
+    <t>хөл газар хүрэхгүй баярлах; магнай тэнийх</t>
   </si>
   <si>
     <t>Als sie die Konzerttickets bekam, sprang er vor Freude an die Decke.</t>
@@ -1306,7 +1306,7 @@
     <t>Чухал шийдвэр гаргахын өмнө эргэлзэж, эмээж буйгаа энэ хэлцээр илэрхийлж болно.</t>
   </si>
   <si>
-    <t>халшрах, jmdm. nicht mehr geheuer sein, ein mulmiges Gefühl bekommen</t>
+    <t>халшрах; jmdm. nicht mehr geheuer sein; ein mulmiges Gefühl bekommen</t>
   </si>
   <si>
     <t>Ich hoffe, dass er nicht im letzten Moment kalte Füße bekommt und seinen Vortrag absagt.</t>
@@ -1327,7 +1327,7 @@
     <t>Bei dem Gespräch mit meinem Chef hatte ich ein mulmiges Gefühl.</t>
   </si>
   <si>
-    <t xml:space="preserve">kalte Füße; bekommen; kriegen; bekommt; wird; bin; nicht geheuer; ein mulmiges Gefühl, hatte </t>
+    <t xml:space="preserve">kalte Füße; bekommen; kriegen; bekommt; wird; bin; nicht geheuer; ein mulmiges Gefühl; hatte </t>
   </si>
   <si>
     <t>ph00034</t>
@@ -1345,7 +1345,7 @@
     <t>Монгол хэлэнд цөс хөөрөх нь мөн аархах, онгирох гэсэн утга илэрхийлдэг тул андуурч болохгүй.</t>
   </si>
   <si>
-    <t>уурласнаас болж цөс нь хөөрөх, jmdm. läuft die Galle über</t>
+    <t>уурласнаас болж цөс нь хөөрөх; jmdm. läuft die Galle über</t>
   </si>
   <si>
     <t>Als er hörte, wie sein Kollege die Schuld auf ihn schob, kam ihm die Galle hoch.</t>
@@ -1417,7 +1417,7 @@
     <t>Дундад зууны үед нас барж буй хүний аманд өвс эсвэл шороо хийдэг нэгэн төрлийн заншил байснаас энэхүү хэллэг үүссэн гэж үздэг.</t>
   </si>
   <si>
-    <t>чад хийх, чадрах</t>
+    <t>чад хийх; чадрах</t>
   </si>
   <si>
     <t>Nach dem Unfall wusste jeder, dass er ins Gras gebissen hat.</t>
@@ -1447,7 +1447,7 @@
     <t>1990-д оноос хэрэглэгдэж эхэлсэн бөгөөд ногоон өнгө нь тоног төхөөрөмжийн хэвийн үйл ажиллагааг илэрхийлдэг.</t>
   </si>
   <si>
-    <t>alles in Ordnung, alles okay, гайгүй, тайвандаа</t>
+    <t xml:space="preserve">гайгүй; тайвандаа; alles in Ordnung; alles okay; </t>
   </si>
   <si>
     <t>Bei mir ist alles im grünen Bereich und ich bin jetzt wirklich glücklich.</t>
@@ -1486,7 +1486,7 @@
     <t>Энэ хэлц үг нь 19-р зууны театрын хэллэгээс үүссэн гэдэг. Хоолойгоо хэтэрхий хүчилж, шахаж дуулах буюу ярихыг knödeln гэдэг бөгөөд дуурийн дуучныг егөөдөн Knödeltenor гэж нэрлэдэг байна.</t>
   </si>
   <si>
-    <t>хоолой зангирах, гол горойх</t>
+    <t>хоолой зангирах; гол горойх</t>
   </si>
   <si>
     <t>Als sie ihre Dankesrede hielt, hatte sie einen Kloß im Hals und konnte kaum sprechen.</t>
@@ -1549,7 +1549,7 @@
     <t>Хүний арьс хүний биеийг бүрхдэг хамгийн том эрхтэн юм. Nicht aus seiner Haut können гэдгээр хүн зан чанар, үзэл бодолоо өөрчилж чадахгүй буюу “өөрийн арьснаас гарч чадахгүй” гэсэн утгатай бол aus der Haut fahren гэдэг нь “арьснаасаа гартлаа” асар их уурлахыг хэлнэ.</t>
   </si>
   <si>
-    <t>галзууртлаа уурлах, нүд нь улаанаар эргэлдэх, цөс буцлах</t>
+    <t>галзууртлаа уурлах; нүд нь улаанаар эргэлдэх; цөс буцлах</t>
   </si>
   <si>
     <t>Früher bin ich häufig aus der Haut gefahren, wenn ich wütend wurde, und habe anschließend bereut, was ich gesagt habe.</t>
@@ -1582,7 +1582,7 @@
     <t>Библид “Ертөнцийн эзэнд итгэж түүнд зүрх сэтгэлээ уудла, тэр үргэлж бидний талд” гэжээ. Сэтгэл доторх нуугдсан мэдрэмжүүдийг агуулдаг “сав”-ыг зүрхээр төлөөлөн илэрхийлсэн байна.</t>
   </si>
   <si>
-    <t>сэтгэлээ уудлах, сэтгэлээ нээх</t>
+    <t>сэтгэлээ уудлах; сэтгэлээ нээх</t>
   </si>
   <si>
     <t>Obwohl sie normalerweise sehr verschlossen ist, hat sie ihm gestern ihr Herz ausgeschüttet und von ihren Ängsten erzählt.</t>
@@ -1615,7 +1615,7 @@
     <t>Энэ хэлц нь 17-р зуунд бичгээр тэмдэглэгдсэн ба зүрх нь сэтгэл хөдлөлийн төв гэсэн утга агуулдаг. Хэн нэгэн эсвэл ямар нэг зүйл “зүрхний нэг хэсэг болсон” гэсэн ойлголтоос үүдэлтэй.</t>
   </si>
   <si>
-    <t>бие биедээ дасах, зүрхний угаас хайрлах</t>
+    <t>бие биедээ дасах; зүрхний угаас хайрлах</t>
   </si>
   <si>
     <t>Mein Hund ist mir über die Jahre sehr ans Herz gewachsen.</t>
@@ -1651,7 +1651,7 @@
     <t>Өгүүлэгдэхүүн гишүүн нь үргэлж өгөх оршихын тийн ялгалд (Dat.) байна.</t>
   </si>
   <si>
-    <t>өр зүрх урагдах, зүрх зүүгээр шивэх шиг болох, зүрх зүсэх, элэг эмтрэх</t>
+    <t>өр зүрх урагдах; зүрх зүүгээр шивэх шиг болох; зүрх зүсэх; элэг эмтрэх</t>
   </si>
   <si>
     <t>Mir blutet das Herz, wenn ich jemanden sehe, der auf der Straße lebt.</t>
@@ -1687,7 +1687,7 @@
     <t>Өгүүлэгдэхүүн гишүүн нь үр- гэлж өгөх оршихын тийн ялгалд (Dat.) байна.</t>
   </si>
   <si>
-    <t>нуруун дээрээс ачаа авч хаях, сэтгэл хөнгөрөх</t>
+    <t>нуруун дээрээс ачаа авч хаях; сэтгэл хөнгөрөх</t>
   </si>
   <si>
     <t>Der Arzt hat gesagt, die Operation sei gut verlaufen. Da ist mir ein Stein vom Herzen gefallen.</t>
@@ -1726,7 +1726,7 @@
     <t>Эгэх төлөөний үгтэй (Refl.) хэрэглэнэ.</t>
   </si>
   <si>
-    <t>зүрх гаргах, зүрх орох</t>
+    <t>зүрх гаргах; зүрх орох</t>
   </si>
   <si>
     <t>Er nimmt sich ein Herz und gesteht ihr seine Liebe.</t>
@@ -1759,7 +1759,7 @@
     <t>Өгөх оршихын тийн ялгалд (Dat.) хэрэглэнэ.</t>
   </si>
   <si>
-    <t>нар гарах, магнай тэнийх</t>
+    <t>нар гарах; магнай тэнийх</t>
   </si>
   <si>
     <t>Als sie ihre Familie nach langer Zeit wiedersah, ging ihr das Herz auf.</t>
@@ -1816,7 +1816,7 @@
     <t>Schreck</t>
   </si>
   <si>
-    <t>зүрх пал хийх, зүрх авах, jmdm. fällt das Herz in die Hose, jmdm. sinkt das Herz in die Hose</t>
+    <t>зүрх пал хийх; зүрх авах; jmdm. fällt das Herz in die Hose; jmdm. sinkt das Herz in die Hose</t>
   </si>
   <si>
     <t>Jedes Mal, wenn der Lehrer nach den Hausaufgaben fragt, rutscht mir das Herz in die Hose.</t>
@@ -1852,7 +1852,7 @@
     <t>уран зохиолын хэл</t>
   </si>
   <si>
-    <t>хэн нэгэнд зүрх сэтгэлээ өгөх, хөлөө хугалчих шахах</t>
+    <t>хэн нэгэнд зүрх сэтгэлээ өгөх; хөлөө хугалчих шахах</t>
   </si>
   <si>
     <t>Sie merkt nicht einmal, dass er ihr längst sein Herz zu Füßen gelegt hat.</t>
@@ -1948,7 +1948,7 @@
     <t>Эртний одон орны ухаанд долоон гараг байдаг гэж үздэг байв. Долоо дахь тэнгэр нь хамгийн дээд, ариун бөгөөд ингэснээр хамгийн дээд аз жаргалд хүрэхийг илтгэдэг  байжээ.</t>
   </si>
   <si>
-    <t>жаргалдаа умбах, баярын нар гарах, нисэх шахах</t>
+    <t>жаргалдаа умбах; баярын нар гарах; нисэх шахах</t>
   </si>
   <si>
     <t>Seitdem er verliebt ist, ist er im siebten Himmel.</t>
@@ -2020,7 +2020,7 @@
     <t>Эрт үед хүмүүс баавгайн өмсгөл өмсөж зөгийн үүрнээс бал авахдаа зөгийг хуурахын тулд өмсгөлийн аманд бал түрхдэг байжээ.</t>
   </si>
   <si>
-    <t>цаасан малгай өмсгөх, тал засах, jmdm. Honig ums Maul schmieren</t>
+    <t>цаасан малгай өмсгөх; тал засах; jmdm. Honig ums Maul schmieren</t>
   </si>
   <si>
     <t>Er hat der Chefin wieder Honig um den Mund geschmiert, nur damit sie ihm das neue Projekt gibt.</t>
@@ -2089,7 +2089,7 @@
     <t>auf den Hund kommen хэлц нь амьдрал, эрүүл мэнд, ажил хэрэг эсвэл эдийн засгийн байдал муудах, доройтох, сүйрэх гэсэн утгатай.</t>
   </si>
   <si>
-    <t>нохойн замаар оруулах/орох, буруу замаар будаа тээлгэх / тээх</t>
+    <t>нохойн замаар оруулах / орох; буруу замаар будаа тээлгэх / тээх</t>
   </si>
   <si>
     <t>Wenn das so weitergeht, bringt dich dein Lebensstil noch auf den Hund.</t>
@@ -2191,7 +2191,7 @@
     <t>Энэхүү хэлцийг зөвхөн сэтгэл санааны хувьд гутралд орсон үед бус, нийгэм, эдийн засаг, байгууллагын санхүүгийн байдал гэх мэт нөхцөл байдалд хэрэглэж болно.</t>
   </si>
   <si>
-    <t>сүйрлийн ирмэгт очих, адагтаа тулах, тартагтаа тулах, модоо барих</t>
+    <t>сүйрлийн ирмэгт очих; адагтаа тулах; тартагтаа тулах; модоо барих</t>
   </si>
   <si>
     <t>Die Ehe von den beiden ist vor die Hunde gegangen, sie haben sich scheiden lassen.</t>
@@ -2230,7 +2230,7 @@
     <t>“kalt” буюу “хүйтэн” гэдэг нь хүн нас барсны дараа бие нь хөрдөгтэй холбоотой үүссэн үг.</t>
   </si>
   <si>
-    <t>амийг нь хорлох, егүүтгэх, таслах, цааш нь харуулах</t>
+    <t>амийг нь хорлох; егүүтгэх, таслах; цааш нь харуулах</t>
   </si>
   <si>
     <t>Wenn er das herausfindet, dass du sein Auto kaputt gemacht hast, macht er dich kalt.</t>
@@ -2263,7 +2263,7 @@
     <t>Дундад зуунд нийтийн халуун усны газарт Bader хэмээх мэргэжилтэй хүн ажилладаг байжээ. Тэрээр үс, сахал засах, бумба тавих, шарх боох зэрэг олон төрлийн үүрэг гүйцэтгэдэг байв. Ингэхдээ бүх хүний үсийг нэг самаар нэгэн жигд тайрдаг байснаас үүссэн энэ хэлц үгийг одоог хүртэл хэрэглэдэг</t>
   </si>
   <si>
-    <t>бүгдийг нэг шугамаар хэмжих, нэг хэвэнд цутгасан мэт үзэх</t>
+    <t>бүгдийг нэг шугамаар хэмжих; нэг хэвэнд цутгасан мэт үзэх</t>
   </si>
   <si>
     <t>Nicht jeder Jugendliche ist respektlos – man sollte sie nicht über einen Kamm scheren.</t>
@@ -2326,7 +2326,7 @@
     <t>19–р зууны Лейпцигийн оюутнуудын дундах ярианы хэлээс үүсэлтэй. Тэд Katarrh гэдэг үгийг саксон аялгаар Kater гэж дууддаг байжээ. Katarrh нь амьсгалын замын үрэвсэл бөгөөд энэ нь ханиалгах, бие сульдах, толгой өвдөх зэрэг шартахтай адил шинж тэмдгээр илэрдэг.</t>
   </si>
   <si>
-    <t>шартах, зуун за- раа зулзагатайгаа байх</t>
+    <t>шартах; зуун зараа зулзагатайгаа байх</t>
   </si>
   <si>
     <t>Nach der Party hatte er einen schlimmen Kater und lag den ganzen Tag im Bett.</t>
@@ -2338,7 +2338,7 @@
     <t>Heute bin ich total verkatert , denn gestern habe ich meinen Geburtstag gefeiert.</t>
   </si>
   <si>
-    <t>einen Kater; haben; hatte; Katers; bin; verkatert; sein</t>
+    <t>einen; Kater; haben; hatte; Katers; bin; verkatert; sein</t>
   </si>
   <si>
     <t>ph00065</t>
@@ -2449,7 +2449,7 @@
     <t>Klappe нь савны таг гэсэн үг бөгөөд хар ярианд амыг хаах буюу дуугүй болгох гэсэн шилжсэн утгаар хэрэглэдэг. Ихэвчилэн хүнд хандаж хэлэхийн зэрэгцээ 1–р  бие дээр За за яршиг, дугай л байя гэсэн санааг илэрхийлнэ.</t>
   </si>
   <si>
-    <t>олон долоон юм ярихгүй байх, битгий донгос! den Mund halten</t>
+    <t>олон долоон юм ярихгүй байх; битгий донгос!; den Mund halten</t>
   </si>
   <si>
     <t>Wenn du keine Ahnung hast, solltest du einfach mal die Klappe halten.</t>
@@ -2482,7 +2482,7 @@
     <t>klipp und klar нь толгой холбон бүтсэн хэллэг тул байрыг нь сольж болохгүй. Ийм аргаар бүтсэн өөр нэг хэлц нь fix und fertig буюу ядрах, туйлдахыг илэрхийлнэ.</t>
   </si>
   <si>
-    <t>ил тод хэлэх, шу- луухан хэлэх, etw. klipp und klar sagen / machen / erklären / fordern / ablehnen</t>
+    <t>ил тод хэлэх; шулуухан хэлэх; etw. klipp und klar sagen / machen / erklären / fordern / ablehnen</t>
   </si>
   <si>
     <t>Ich habe ihm klipp und klar gesagt, dass unsere Ehe keine Zukunft hat.</t>
@@ -2506,10 +2506,10 @@
     <t>маш их айх, сандрах, сул дорой болох</t>
   </si>
   <si>
-    <t>Энэхүү хэлцийг олон нөхцөл байдалд хэрэглэж болно. Айж эмээх, сэт- гэл догдлох, сэтгэл хөдлөх, цочирдох гэх мэт.</t>
-  </si>
-  <si>
-    <t>өвдөг чичрэх, бүлх залгисан юм шиг болох, weiche Knie kriegen, jmdm. werden die Knie weich</t>
+    <t>Энэхүү хэлцийг олон нөхцөл байдалд хэрэглэж болно. Айж эмээх, сэтгэл догдлох, сэтгэл хөдлөх, цочирдох гэх мэт.</t>
+  </si>
+  <si>
+    <t>өвдөг чичрэх; бүлх залгисан юм шиг болох; weiche Knie kriegen; jmdm. werden die Knie weich</t>
   </si>
   <si>
     <t>Kurz vor der Präsentation bekomme ich immer weiche Knie.</t>
@@ -2542,10 +2542,10 @@
     <t>Vermeidung</t>
   </si>
   <si>
-    <t>Энэ хэлц нь тэмээн хяруултай холбоотой домог, төсөөллөөс үүдэлтэй. Хүмүүс урьд нь тэмээн хяруул аюул тулгарахад айсандаа толгойгоо элсэнд шургуулаад нуугддаг гэж итгэдэг байсан. Энэ нь “аюулыг харахгүй бол байхгүй юм шиг” санагдана гэсэн санаа юм. Иймээс асуудлыг шийдэхийн оронд нуугдаж, мэ- дээгүй юм шиг аашлах хүний үйлдлийг дүйцүүлэн энэ хэлц үүссэн ажээ.</t>
-  </si>
-  <si>
-    <t>нүдэн балай, чихэн дүлий загнах</t>
+    <t>Энэ хэлц нь тэмээн хяруултай холбоотой домог, төсөөллөөс үүдэлтэй. Хүмүүс урьд нь тэмээн хяруул аюул тулгарахад айсандаа толгойгоо элсэнд шургуулаад нуугддаг гэж итгэдэг байсан. Энэ нь “аюулыг харахгүй бол байхгүй юм шиг” санагдана гэсэн санаа юм. Иймээс асуудлыг шийдэхийн оронд нуугдаж, мэдээгүй юм шиг аашлах хүний үйлдлийг дүйцүүлэн энэ хэлц үүссэн ажээ.</t>
+  </si>
+  <si>
+    <t>нүдэн балай; чихэн дүлий загнах</t>
   </si>
   <si>
     <t>Die Firma darf jetzt nicht den Kopf in den Sand stecken – es ist Zeit, die Strategie zu ändern.</t>
@@ -2572,7 +2572,7 @@
     <t>удаан хугацаагаар давчуу орон зайд тусгаарлагдсанаас болж тайван биш байдалд орох, ганцаардах, уйдах, тарчилах, стрессдэх</t>
   </si>
   <si>
-    <t>байж ядах, байж суух газраа олж ядах, jmdm. fällt die Bude auf den Kopf</t>
+    <t>байж ядах; байж суух газраа олж ядах; jmdm. fällt die Bude auf den Kopf</t>
   </si>
   <si>
     <t>Ich bin seit drei Wochen krank im Bett – mir fällt schon die Decke auf den Kopf!</t>
@@ -2584,7 +2584,7 @@
     <t>Dir fällt doch die Decke auf den Kopf, wenn du immer nur zu Hause bist. Geh' doch mal raus!</t>
   </si>
   <si>
-    <t xml:space="preserve">fällt; die Decke auf den Kopf; fiel: </t>
+    <t>fällt; die Decke auf den Kopf; fiel;</t>
   </si>
   <si>
     <t>ph00073</t>
@@ -2662,7 +2662,7 @@
     <t>Stillstand</t>
   </si>
   <si>
-    <t>дороо эргэлдэх, гараас юм гарахгүй байх</t>
+    <t>дороо эргэлдэх; гараас юм гарахгүй байх</t>
   </si>
   <si>
     <t>Wir diskutieren schon seit Stunden über dasselbe Thema und drehen uns nur im Kreis.</t>
@@ -2698,7 +2698,7 @@
     <t>Laune буюу сэтгэл санаа гэх үгийн үндэс латин хэлний Luna буюу сар хэмээх үгээс үүсэлтэй бөгөөд дундад зууны одон орон судлалд сар солигдох нь хүний сэтгэл санаанд хүчтэй нөлөө үзүүлдэг гэж үздэг байжээ.</t>
   </si>
   <si>
-    <t>сэтгэл засах, сэтгэл санааг нь өргөх, сайхан зан хөдөлгөх</t>
+    <t>сэтгэл засах; сэтгэл санааг нь өргөх; сайхан зан хөдөлгөх</t>
   </si>
   <si>
     <t>Er versucht, seinen Chef bei Laune zu halten, indem er besonders fleißig arbeitet.</t>
@@ -2731,7 +2731,7 @@
     <t>Энэхүү хэлц нь үлээвэр хөгжмийн зэмсгээс гаралтай бөгөөд үлээвэр хөгжмийн сүүлийн нүх дээр хамгийн өндөр нот тоглоод түүнээс дээш нот байхгүй учир бүх хүч, боломжоо шавхаж байгаатай зүйрлэжээ.</t>
   </si>
   <si>
-    <t>өрөөлтэй морь гүйцэхээ байх, бүх хүчээ шавхах</t>
+    <t>өрөөлтэй морь гүйцэхээ байх; бүх хүчээ шавхах</t>
   </si>
   <si>
     <t>Nach der Arbeit pfeife ich aus dem letzten Loch. Ich kann einfach nicht mehr.</t>
@@ -2758,7 +2758,7 @@
     <t>Дундад зуунд хүн бүр өөрийн халбагатай байсан бөгөөд хооллох нь амьд яваагийн гол бэлгэ тэмдэг байжээ. Иймд Löffel abgeben буюу халбагаа үлдээх гэдэг нь насан эцэслэхийг дүрсэлдэг байжээ.</t>
   </si>
   <si>
-    <t>хадан гэртээ харих, нүд аних, амьсгал хураах</t>
+    <t>хадан гэртээ харих; нүд аних; амьсгал хураах</t>
   </si>
   <si>
     <t>Nach langer Krankheit  hat unser Opa mit 95 Jahren den Löffel abgegeben. Er hatte ein glückliches Leben und ist am Ende friedlich eingeschlafen.</t>
@@ -2788,7 +2788,7 @@
     <t>Schock</t>
   </si>
   <si>
-    <t>ам ангайх, алмайран гайхшрах, ам нь эвлэж ядах</t>
+    <t>ам ангайх; алмайран гайхшрах; ам нь эвлэж ядах</t>
   </si>
   <si>
     <t>Bei dem tollen Ausblick bleibt mir die Luft weg.</t>
@@ -2821,7 +2821,7 @@
     <t>Шалгалт, албан ярилцлагын өмнө мэдрэгддэг айдас, түгшүүрийг хэлнэ.</t>
   </si>
   <si>
-    <t>үстэй толгой арзайх, зүрх амаар гарах, зүрх үхэх, баас алдах, чацгаа хавчих, шээс алдах, Muffensausen kriegen / haben, Aftersausen kriegen / bekommen</t>
+    <t>үстэй толгой арзайх; зүрх амаар гарах; зүрх үхэх; баас алдах; чацгаа хавчих; шээс алдах; Muffensausen kriegen / haben; Aftersausen kriegen / bekommen</t>
   </si>
   <si>
     <t>Ich habe echt Muffensausen vor der Präsentation.</t>
@@ -2857,10 +2857,10 @@
     <t>Bewertung</t>
   </si>
   <si>
-    <t>сүр болгох, сүр бадруулах, өчүүхэн зүйлийг уул чинээ болгох</t>
-  </si>
-  <si>
-    <t>Das ist doch nur ein kleiner Kratzer – mach doch nicht aus einer Mücke einen Elefanten!</t>
+    <t>сүр болгох; сүр бадруулах; өчүүхэн зүйлийг уул чинээ болгох</t>
+  </si>
+  <si>
+    <t>Das ist doch nur ein kleiner Kratzer – mach nicht aus einer Mücke einen Elefanten!</t>
   </si>
   <si>
     <t>Bei ihr ist immer Drama. Sie macht aus jeder Mücke einen Elefanten.</t>
@@ -2875,7 +2875,7 @@
     <t>Er neigt dazu, Situationen zu übertreiben und aus einer Mücke einen Elefanten zu machen.</t>
   </si>
   <si>
-    <t xml:space="preserve">aus einer; Mücke einen Elefanten; machen; mach; macht; aus jeder; </t>
+    <t>macht aus jeder Mücke einen Elefanten; aus einer Mücke einen Elefanten machen; aus einer Mücke einen Elefanten zu machen; mach nicht aus einer Mücke einen Elefanten;</t>
   </si>
   <si>
     <t>ph00082</t>
@@ -2890,7 +2890,7 @@
     <t>Vertraulichkeit</t>
   </si>
   <si>
-    <t>хуучлах, дотроо уудлах, нууцаа задлах, ам алдах</t>
+    <t>хуучлах, дотроо уудлах; нууцаа задлах, ам алдах</t>
   </si>
   <si>
     <t>Nach ein paar Drinks fing unser Chef an, aus dem Nähkästchen zu plaudern und hat einige Geheimnisse über die Firma erzählt.</t>
@@ -2926,7 +2926,7 @@
     <t>Үргэлж төгс өнгөрсөн цагт (Perfekt) хэрэглэнэ.</t>
   </si>
   <si>
-    <t>ухаангүй дурлах, донттолоо сонирхох</t>
+    <t>ухаангүй дурлах; донттолоо сонирхох</t>
   </si>
   <si>
     <t>Warum hast du so einen Narren an diesem langweiligen Spiel gefressen?</t>
@@ -2941,7 +2941,7 @@
     <t>Sie ist vernarrt in ihren neuen Hund und redet nur noch von ihm.</t>
   </si>
   <si>
-    <t>einen Narren; an; gefressen; haben; hast; hat; ist vernarrt in; vernarrt in jmdn. / etw. sein;</t>
+    <t>vernarrt in; einen Narren an; gefressen; haben; hast; hat; etw. sein; jmdn.; ist;</t>
   </si>
   <si>
     <t>ph00084</t>
@@ -2992,7 +2992,7 @@
     <t>Энэхүү хэлц нь 20-р зуунд тулааны спортын хэллэгээс үүссэн бөгөөд анх “цохилт даах чадвартай байх” гэсэн утгатай байжээ. Хожим нь энэ утга нь өргөжиж сэтгэл санааны болон бие махбодын сорилтыг тэсэх чадвартай байх гэсэн утгаар хэрэглэгдэх болсон.</t>
   </si>
   <si>
-    <t>сэтгэлийн хаттай байх, зовлон даадаг</t>
+    <t>сэтгэлийн хаттай байх; зовлон даадаг</t>
   </si>
   <si>
     <t>Keine Sorge, ich bin hart im Nehmen. Zur Not arbeite ich die ganze Nacht.</t>
@@ -3130,7 +3130,7 @@
     <t xml:space="preserve">Сармагчин аюул мэдэрсэн үедээ модруу авирч, дээрээс хашхиран өөрийгөө хамгаалдаг үйлдэлтэй зүйрлэн бүтжээ. </t>
   </si>
   <si>
-    <t>тэвчээр алдуулах, галзуурах шахах</t>
+    <t>тэвчээр алдуулах; галзуурах шахах</t>
   </si>
   <si>
     <t>Seine dummen Worte bringen mich auf die Palme!</t>
@@ -3202,7 +3202,7 @@
     <t>Keine zehn Pferde bringen ihn dazu, seine Meinung zu ändern.</t>
   </si>
   <si>
-    <t>Obwohl alle sie überreden wollten, blieb sie standhaft. Keine zehn Pferde hätten sie zum Umzug bewegen können.</t>
+    <t>Obwohl alle sie überreden wollten, blieb sie standhaft. Keine zehn Pferde hätten sie zu diesem Schritt bewegen können.</t>
   </si>
   <si>
     <t>Mich bringen keine zehn Pferde dazu, so früh aufzustehen.</t>
@@ -3211,7 +3211,7 @@
     <t>Er ist so stur, dass keine zehn Pferde ihn von seiner Meinung abbringen können.</t>
   </si>
   <si>
-    <t>bringen; keine zehn Pferde; dazu; zu; abbringen; bewegen;</t>
+    <t>bringen; keine zehn Pferde; dazu; zu ; abbringen; bewegen;</t>
   </si>
   <si>
     <t>ph00092</t>
@@ -3229,7 +3229,7 @@
     <t>Unsinn</t>
   </si>
   <si>
-    <t>бурах, үлгэр шиг юм ярих</t>
+    <t>бурах; үлгэр шиг юм ярих</t>
   </si>
   <si>
     <t>Erzähl mir keinen vom Pferd! Das glaubst du doch selbst nicht!</t>
@@ -3265,7 +3265,7 @@
     <t>Шүүмж, сөрөг үнэлэмж, урам хугарсан утга илэрхийлнэ.</t>
   </si>
   <si>
-    <t>нуухыг нь авах гээд нүдийг нь сохлох, их санасан газар есөн шөнө хоосон</t>
+    <t>нуухыг нь авах гээд нүдийг нь сохлох; их санасан газар есөн шөнө хоосон</t>
   </si>
   <si>
     <t>Sie dachte, sie wäre in der neuen Firma gut aufgehoben, aber sie ist vom Pferd auf den Esel gekommen.</t>
@@ -3526,7 +3526,7 @@
     <t>Энэ хэллэг нь дундад зууны үеийн торх үйлдвэрлэлтэй холбоотой үүссэн байна. Торхыг барьж, тогтоох зориулалттай төмөр цагариг бүслүүр задарвал торх эвдрэнэ. Энэхүү дүрслэл нь хүний төсөөлөлд ямар нэг зүйл тухайн нөхцөл байдлаас шалтгаалан хяналтаас гарч буйг илэрхийлдэг.</t>
   </si>
   <si>
-    <t>хөл хөөрцөг болох, бөөн баяр болох, хөл толгойгоо ал- дах, эх адаггүй болох, außer Rand und Band sein</t>
+    <t>хөл хөөрцөг болох; бөөн баяр болох; хөл толгойгоо алдах; эх адаггүй болох; außer Rand und Band sein</t>
   </si>
   <si>
     <t>Die Kinder geraten oft außer Rand und Band, wenn sie zu viel Zucker essen.</t>
@@ -3556,7 +3556,7 @@
     <t>Belastung</t>
   </si>
   <si>
-    <t>галд тос нэмэх / хийх, сүүлчийн цохилт өгөх</t>
+    <t>галд тос нэмэх / хийх; сүүлчийн цохилт өгөх</t>
   </si>
   <si>
     <t>Die schlechte Nachricht hat ihm endgültig den Rest gegeben.</t>
@@ -3589,7 +3589,7 @@
     <t>Дундад зууны үеийн туульс, домогт нууцлаг морьтон баатруудын тухай өгүүлдэг байжээ. Эдгээр баатрууд нь хуяг дуулга өмссөн байдаг тул хэн болохыг нь таних боломжгүй байсан. Тэднийг хэн болохыг мэдэх нь нэн чухал байсан учир нэрийг нь чанга дуудан  танилцуулдаг уламжлалаас үүсэлтэй.</t>
   </si>
   <si>
-    <t>нэр усыг нь зарлах, нууж хаалгүй, ний нуугүй хэлэх, Tacheles reden, Klartext sprechen</t>
+    <t>нэр усыг нь зарлах; нууж хаалгүй; ний нуугүй хэлэх; Tacheles reden; Klartext sprechen</t>
   </si>
   <si>
     <t>Jetzt nenn doch endlich Ross und Reiter, wer hat das wirklich gesagt?</t>
@@ -3655,7 +3655,7 @@
     <t>schmoren гэдэг нь махыг шүү- сэнд нь удаан болгохыг хэлнэ. Харин jmdn. im eigenen Saft schmoren lassen нь хэн нэгнийг таагүй байдалд орхих, туслахгүй хаях гэсэн утга илэрхийлнэ.</t>
   </si>
   <si>
-    <t>зовлонтойгоо нүүр тулж шаналах, зовлонгоо үүрэх</t>
+    <t>зовлонтойгоо нүүр тулж шаналах; зовлонгоо үүрэх</t>
   </si>
   <si>
     <t>Wenn du dich ständig ärgerst und niemandem davon erzählst, wirst du am Ende nur im eigenen Saft schmoren.</t>
@@ -3691,7 +3691,7 @@
     <t>Энэхүү хэлцийн гарал тодорхойгүй боловч олон таамаг байдгийн нэг нь дундад зуунд хог ачдаг үйлчилгээ байхгүй байснаас хүмүүс хогоо үүдэндээ гаргаж хаядаг байжээ. Гахайнуудаа хашаанаас нь гаргах үед тэд хог дээр очиж, хогийг нь идэж, бусниулдаг байжээ.</t>
   </si>
   <si>
-    <t>дураараа дургиж, дунд чөмгөөрөө жиргэх, задгай авах, балай авах, хөлөөрөө толгой хийх</t>
+    <t>дураараа дургиж; дунд чөмгөөрөө жиргэх; задгай авах; балай авах; хөлөөрөө толгой хийх</t>
   </si>
   <si>
     <t>Und heute Abend nach der Prüfung lassen wir mal so richtig die Sau raus!</t>
@@ -3724,7 +3724,7 @@
     <t>Энэхүү хэллэг нь дундад зуунд гэмт хэрэгтнүүдийг олон нийтийн өмнө доромжлон, шившиг болгохын тулд тэднийг гахайн толгойн хэлбэртэй төмөр маск зүүлгэн гудамжаар дөрөв хөллөн явуулдаг байжээ.</t>
   </si>
   <si>
-    <t>доромжлох, шив- шиг болгох, зад загинах, доош нь хийх</t>
+    <t>доромжлох; шившиг болгох; зад загинах; доош нь хийх</t>
   </si>
   <si>
     <t>Gestern machte unser Chef das gesamte Team zur Sau – er war wirklich wütend!</t>
@@ -3784,7 +3784,7 @@
     <t>Schimmer нь гэрэл, гялбаа гэсэн утгатай. Хэрвээ blassen Schimmer буюу сүүмэлзэх цайвар гэрэл ч байхгүй бол, тухайн зүйлийн талаар огтхонч ойлголтгүй гэсэн үг.</t>
   </si>
   <si>
-    <t>keine Ahnung haben, nur Bahnhof verstehen, keinen (blassen) Dunst (von etw.) haben</t>
+    <t>keine Ahnung haben; nur Bahnhof verstehen; keinen (blassen) Dunst (von etw.) haben</t>
   </si>
   <si>
     <t>Als Anfänger hat man erst mal keinen Schimmer!</t>
@@ -3814,7 +3814,7 @@
     <t>Тулааны өмнө цэргүүдэд айдсаас үүдэн хоол боловсруулах эрхтэн тогтолцоонд асуудал үүсэхэд энэхүү хэлцээр илэрхийлдэг байсан гэж үздэг.</t>
   </si>
   <si>
-    <t>сүүлээ хавчих,сүнс зайлах, бөгсөө хавчих, зүрх амаар гарах, үнхэлцэг хагарах, vor jmdn. / etw. Schiss kriegen</t>
+    <t>сүүлээ хавчих; сүнс зайлах; бөгсөө хавчих; зүрх амаар гарах; үнхэлцэг хагарах; vor jmdn. / etw. Schiss kriegen</t>
   </si>
   <si>
     <t>Ich habe echt Schiss vor der Prüfung und kann kaum schlafen.</t>
@@ -3886,7 +3886,7 @@
     <t>Бодол ус шиг урсдаг гэсэн санаанаас уг хэллэг үүссэн. Хэрэв усны шланк дээр зогсвол усны урсгалыг хааж, ус урсахаа болихтой зүйрлэжээ.</t>
   </si>
   <si>
-    <t>гацаанд орох, сүлжээ унах</t>
+    <t>гацаанд орох; сүлжээ унах</t>
   </si>
   <si>
     <t>Kannst du mir bei Mathe helfen? Ich stehe total auf dem Schlauch.</t>
@@ -3913,7 +3913,7 @@
     <t>хэн нэгэнд дурлах үед мэдрэгддэг догдлол, баяр хөөрийн мэдрэмж</t>
   </si>
   <si>
-    <t>барьц алдах, балмагдах, догдлох</t>
+    <t>барьц алдах; балмагдах; догдлох</t>
   </si>
   <si>
     <t>Jedes Mal, wenn ich ihn sehe, habe ich Schmetterlinge im Bauch.</t>
@@ -3946,7 +3946,7 @@
     <t>kalter Kaffee ижил утгатай. olle Kamellen сонирхолтой биш, хүн болгоны мэддэг зүйлийг дахин дахин ярихад дургүйцлээ илэрхийлэх үед хэрэглэнэ.</t>
   </si>
   <si>
-    <t>үлэг болсон юм ярих, дэвэн галавын юм ярих</t>
+    <t>үлэг болсон юм ярих; дэвэн галавын юм ярих</t>
   </si>
   <si>
     <t>Das ist doch Schnee von gestern!</t>
@@ -4021,7 +4021,7 @@
     <t>Сайн таньдаг, дотны хүмүүсийн хүрээнд хэн нэгэнд санаа зовон өөрт нь хандаж хэлэх эсвэл санаа зовж буй өөр хэн нэгний талаар ярихад хэрэглэнэ. Мөн хэлж байгаа дууны өнгөөс хамаарч дооглонгүй утга илэрхийлж болно.</t>
   </si>
   <si>
-    <t>хөөрхий амьтан, золгүй амьтан, аз нь харьсан амьтан / хүн</t>
+    <t>хөөрхий амьтан; золгүй амьтан; аз нь харьсан амьтан / хүн</t>
   </si>
   <si>
     <t>Du armes Schwein, du musstest das ganze Wochenende durcharbeiten und jetzt bist du total erschöpft.</t>
@@ -4091,7 +4091,7 @@
     <t>Энэхүү хэлцийн гарал тодорхойгүй боловч олон таамаг байдгийн нэг нь дээр үед германд Schützenfeste буюу анчдын баяраар хамгийн муу буудсан  анчныг урамшуулан гахайгаар шагнадаг байжээ. Мөн дундад зуунд одоогийн хөзрийн тамга Sau буюу “мэгж” нэртэй байсан бөгөөд энэ хөзрийг авсан хүн ялах магадлал их байв.</t>
   </si>
   <si>
-    <t>аз ивээх, аз дай- рах, тэнгэрийн умдаг атгах</t>
+    <t>аз ивээх; аз дайрах; тэнгэрийн умдаг атгах</t>
   </si>
   <si>
     <t>Schwein muss man haben, wenn man bei der Lotterie gewinnt.</t>
@@ -4127,7 +4127,7 @@
     <t>Биеэ зохисгүй авч явах, бүдүүлэг гэсэн утгаас гадна хүн чанаргүй, зохисгүй, ёс зүйгүй, болчимгүй зан гаргахыг хэлнэ</t>
   </si>
   <si>
-    <t xml:space="preserve">гахай нохой шиг, хүний мөсгүй </t>
+    <t xml:space="preserve">гахай нохой шиг; хүний мөсгүй </t>
   </si>
   <si>
     <t>Michael hat keine Manieren, er hat sich im Restaurant wie ein Schwein benommen.</t>
@@ -4157,7 +4157,7 @@
     <t>seelischer Schmerz</t>
   </si>
   <si>
-    <t>сэтгэл  өвдөх, сэт- гэл эмтрэх, элэг эмтрэх, зүрх шимшрэх, элэг эгших</t>
+    <t>сэтгэл  өвдөх; сэтгэл эмтрэх; элэг эмтрэх; зүрх шимшрэх; элэг эгших</t>
   </si>
   <si>
     <t>Wenn ich jemanden sehe, der auf der Straße lebt, tut mir das in der Seele weh.</t>
@@ -4226,7 +4226,7 @@
     <t>Энэ хэллэг нь театрын уран бүтээлээс гаралтай бөгөөд тухайн хүний үйлдлийг тайзны үзүүлбэртэй зүйрлэж, хэт их драматик байдлыг илэрхийлдэг.</t>
   </si>
   <si>
-    <t>сүржигнэх, сүр бадруулах, Theater machen</t>
+    <t>сүржигнэх; сүр бадруулах; Theater machen</t>
   </si>
   <si>
     <t>Als mein Kollege spät kam, hat seine Frau ihm vor allen Leuten eine Szene gemacht.</t>
@@ -4256,7 +4256,7 @@
     <t>Tacheles буюу зорилго, гол асуудал гэх еврей үгнээс гаралтай.</t>
   </si>
   <si>
-    <t>ам нээвэл уушиг нээх, шулуухан ярих</t>
+    <t>ам нээвэл уушиг нээх; шулуухан ярих</t>
   </si>
   <si>
     <t>Ich muss dir endlich die Wahrheit sagen, was ich davon halte. Wir müssen Tacheles reden. Sonst kommen wir keinen Schritt weiter.</t>
@@ -4286,7 +4286,7 @@
     <t>eine Macke haben, einen Dachschaden haben, eine Schraube locker haben, nicht alle Latten am Zaun haben, nicht ganz dicht sein адил утгатай хэрэглэнэ.</t>
   </si>
   <si>
-    <t>толгойдоо юмтай, эрэг шураг нь дутуу</t>
+    <t>толгойдоо юмтай; эрэг шураг нь дутуу</t>
   </si>
   <si>
     <t>Er sagt, er möchte im Park Picknick machen – aber es regnet doch! Er hat nicht alle Tassen im Schrank!</t>
@@ -4313,7 +4313,7 @@
     <t>Perspektivwechsel</t>
   </si>
   <si>
-    <t>хайрцагнаас гарч сэтгэх, задгай сэтгэх, über den Tellerrand blicken</t>
+    <t>хайрцагнаас гарч сэтгэх; задгай сэтгэх; über den Tellerrand blicken</t>
   </si>
   <si>
     <t>Es ist wichtig, über den Tellerrand zu schauen und andere Kulturen kennenzulernen.</t>
@@ -4349,7 +4349,7 @@
     <t>Христийн шашнаас гаралтай бөгөөд чөтгөр гэрт нь орохоос сэргийлж хаалганы дээр тэмдэг зурдаг байснаас үүдэлтэй.  Харин чөтгөр зурвал муу зүйлсийг дуудна гэж үздэг байжээ.</t>
   </si>
   <si>
-    <t>муу ёрлох, муу амлах</t>
+    <t>муу ёрлох; муу амлах</t>
   </si>
   <si>
     <t>Ich habe geträumt, dass ich meinen Ring verloren habe. – Das ist nur ein Traum gewesen, male nicht direkt den Teufel an die Wand.</t>
@@ -4361,7 +4361,7 @@
     <t>Ich will den Teufel nicht an die Wand malen, aber was ist, wenn du die Prüfung nicht schaffst?</t>
   </si>
   <si>
-    <t xml:space="preserve">den Teufel an die Wand; malen; male; malst; </t>
+    <t xml:space="preserve">den Teufel; an die Wand; malen; male; malst; </t>
   </si>
   <si>
     <t>ph00127</t>
@@ -4442,7 +4442,7 @@
     <t>Эрт үед сэтгэцийн өвчтэй хүний толгойд шувуу үүрлэж, оюун ухааныг нь хэвийн бус болгодог гэж үздэг байжээ.</t>
   </si>
   <si>
-    <t>юмтай байх, bei dir piept’s wohl</t>
+    <t>юмтай байх; bei dir piept’s wohl</t>
   </si>
   <si>
     <t>Als er mir diese Geschichte erzählte, musste ich ihm wirklich einen Vogel zeigen, so unglaubwürdig klang das.</t>
@@ -4478,7 +4478,7 @@
     <t xml:space="preserve">Waffel гэдэг нь энэ хэлцэд идэх юм биш харин том амтай гэсэн утгаар хэрэглэгдэнэ. waffeln буюу schwafeln нь дэмий балай, утгагүй юм ярих гэсэн утгатай. Англи хэлний waffle үйл үгтэй утгын хувьд төстэй. </t>
   </si>
   <si>
-    <t>галзуу, солиотой юм шиг</t>
+    <t>галзуу; солиотой юм шиг</t>
   </si>
   <si>
     <t>Hast du einen an der Waffel, oder warum ziehst du jetzt schon wieder um?</t>
@@ -4508,7 +4508,7 @@
     <t>Krise</t>
   </si>
   <si>
-    <t>хоолой дээр тулах, амь наана, там цаана, das Wasser bis zum Hals stehen</t>
+    <t>хоолой дээр тулах, амь наана; там цаана; das Wasser bis zum Hals stehen</t>
   </si>
   <si>
     <t>Ich kann den Kredit nicht mehr bezahlen – mir steht das Wasser bis zum Hals.</t>
@@ -4571,7 +4571,7 @@
     <t>Ихэвчлэн сэтгэл хөдлөлдөө амархан автаж, кино, ном гэх мэт сэтгэл хөдөлгөсөн үйл явдлын үеэр амархан уйлдаг хүмүүсийг дүрслэхэд хэрэглэнэ. Заримдаа шог, эсвэл өхөөрдөж хэлэх тохиолдол байдагч доромж байдлаар ашигладаггүй. Heulsuse гэвэл уйланхай хүнийг дургүйцсэн эсвэл дооглосон маягаар хэлж болно.</t>
   </si>
   <si>
-    <t>усан нүдлэх, нулимс ойрхон байх</t>
+    <t>усан нүдлэх; нулимс ойрхон байх</t>
   </si>
   <si>
     <t>Weinen im Kino ist normal für mich – ich bin echt nah am Wasser gebaut.</t>
@@ -4598,7 +4598,7 @@
     <t>Энэ хэлц үг нь дарханы ажлаас гаралтай. Төмрийг олон үе шаттайгаар хайлуулж, хэвэнд цутгадаг бөгөөд төмөр хамгийн өндөр халалтын түвшинд хүрэхэд Weißglut буюу цагаан өнгийн цог үүсдэг байна. Хүний уурыг туйлд нь хүргэхийг энэхүү зүйрлэлээр дүрсэлжээ.</t>
   </si>
   <si>
-    <t>цус харвуулах шахах, тэсрэхэд хүргэх, jmdn. (bis) zur Weißglut reizen</t>
+    <t>цус харвуулах шахах; тэсрэхэд хүргэх; jmdn. (bis) zur Weißglut reizen</t>
   </si>
   <si>
     <t>Seine Faulheit hat sie zur Weißglut gebracht.</t>
@@ -4628,7 +4628,7 @@
     <t xml:space="preserve">Ихэвчлэн аз жаргал, хайр болон амжилттай холбоотой сэдвийн хүрээнд хэрэглэгддэг. Жишээ нь: гэрлэх санал тавих, ажлын ярилцлагад тэнцэх гэх мэт үед ашигладаг. </t>
   </si>
   <si>
-    <t>хагартлаа баярлах, магнай хагартал баярлах, сайхан ааш хөдлөх, хөл газар хүрэхгүй баярлах, die ganze Welt umarmen mögen</t>
+    <t>хагартлаа баярлах; магнай хагартал баярлах; сайхан ааш хөдлөх; хөл газар хүрэхгүй баярлах; die ganze Welt umarmen mögen</t>
   </si>
   <si>
     <t>Nach der bestandenen Prüfung wollte sie die ganze Welt umarmen.</t>
@@ -4655,7 +4655,7 @@
     <t>Trennung</t>
   </si>
   <si>
-    <t>jmdn. den Laufpass geben; jmdn. abservieren; jmdn. fallen lassen; хөсөр хаях; хог дээр хаях; жийх</t>
+    <t>хөсөр хаях; хог дээр хаях; жийх; jmdn. den Laufpass geben; jmdn. abservieren; jmdn. fallen lassen;</t>
   </si>
   <si>
     <t>Nach drei Jahren Beziehung hat sie ihn einfach in den Wind geschossen.</t>
@@ -4691,7 +4691,7 @@
     <t>Найз нөхдийн хүрээнд, ихэвчлэн хөгжилтэй байдлаар хэрэглэх хэллэг. Утга нь зүгээр нэг их алхах биш, бүр ер бусын их алхсныг илтгэнэ.</t>
   </si>
   <si>
-    <t>sich die Füße wundlaufen, sich die Hacken ablaufen, тавхайгаа эргэтэл алхах, үхтлээ алхах</t>
+    <t>тавхайгаа эргэтэл алхах; үхтлээ алхах; sich die Füße wundlaufen; sich die Hacken ablaufen</t>
   </si>
   <si>
     <t>Einmal durch ganz Berlin zu Fuß? - Da läuft man sich ja einen Wolf!</t>
@@ -4769,7 +4769,7 @@
     <t>Fleischwolf гэдэг нь “махны машин” гэсэн утгатай бөгөөд маш их ядарч туйлдсан байгаа хүнийг “махны машинд хийгээд эргүүлчихсэн юм шиг” гэж зүйрлэжээ.</t>
   </si>
   <si>
-    <t>царай алдах, салж унах, гундах, sich fühlen wie durch den Fleischwolf gedreht</t>
+    <t>царай алдах; салж унах; гундах; sich fühlen wie durch den Fleischwolf gedreht</t>
   </si>
   <si>
     <t>Wenn ich am Freitagabend nach Hause komme, fühle ich mich wie durch den Wolf gedreht.</t>
@@ -4790,7 +4790,7 @@
     <t>маш их аз жаргалтай байх, баяр хөөрөөр дүүрэн байх, дурласан байх</t>
   </si>
   <si>
-    <t>нар нь гарах, хөл нь газар хүрэхгүй баярлах, үүлэн дээр хөвөх, auf Wolke sieben schweben</t>
+    <t>нар нь гарах; хөл нь газар хүрэхгүй баярлах; үүлэн дээр хөвөх; auf Wolke sieben schweben</t>
   </si>
   <si>
     <t>Seitdem sie verliebt ist, schwebt sie auf Wolke sieben.</t>
@@ -4826,7 +4826,7 @@
     <t>Бөс даавууг будганд оруулаад өлгөхөд ногоон эсвэл шар өнгөтэй байсан даавуу хүчилтөрөгчтэй химийн урвалд орж цэнхэр болж хувирсан нь хүмүүсийг балмагдуулсан тул энэхүү хэлц үүссэн гэдэг.</t>
   </si>
   <si>
-    <t>auf die Nase fallen, die Quittung bekommen</t>
+    <t>auf die Nase fallen; die Quittung bekommen</t>
   </si>
   <si>
     <t>Wenn du nichts lernst, wirst du in der Prüfung ein blaues Wunder erleben!</t>
@@ -4859,7 +4859,7 @@
     <t>sich für jmdn. ins Zeug legen гэвэл хэн нэгний төлөө ямар нэг зүйлийг бүх хүчээ шавхан хийх, туслах гэсэн утга илэрхийлнэ.</t>
   </si>
   <si>
-    <t>хөлсөө дуслуулах, морь нохой мэт зүтгэх, sich für jmdn./etw. (schwer / mächtig) ins Zeug werfen</t>
+    <t>хөлсөө дуслуулах; морь нохой мэт зүтгэх; sich für jmdn./etw. (schwer / mächtig) ins Zeug werfen</t>
   </si>
   <si>
     <t>Um das Projekt rechtzeitig abzuschließen, musste sie sich richtig ins Zeug legen.</t>
@@ -4926,8 +4926,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -4959,7 +4959,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6207,7 +6207,7 @@
       <c r="AE15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -7206,7 +7206,7 @@
       <c r="AE30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="7" t="s">
         <v>375</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -7404,7 +7404,7 @@
       <c r="A34" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="7" t="s">
         <v>407</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -7797,7 +7797,7 @@
       <c r="AE39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="7" t="s">
         <v>477</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -8387,7 +8387,7 @@
       <c r="A49" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="7" t="s">
         <v>579</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -9367,7 +9367,7 @@
       <c r="AE63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="7" t="s">
         <v>745</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -9762,7 +9762,7 @@
       <c r="A70" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="7" t="s">
         <v>810</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -9829,7 +9829,7 @@
       <c r="A71" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="7" t="s">
         <v>820</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -9893,7 +9893,7 @@
       <c r="AE71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="7" t="s">
         <v>831</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -10303,7 +10303,7 @@
       <c r="F78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -10422,7 +10422,7 @@
       <c r="A80" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="7" t="s">
         <v>914</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -10689,7 +10689,7 @@
       <c r="AE83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="7" t="s">
         <v>958</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -11152,7 +11152,7 @@
       <c r="AE90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="7" t="s">
         <v>1036</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -11284,7 +11284,7 @@
       <c r="AE92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="7" t="s">
         <v>1058</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -12271,7 +12271,7 @@
       <c r="AE107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="7" t="s">
         <v>1223</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -12404,7 +12404,7 @@
       <c r="A110" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="7" t="s">
         <v>1244</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -13470,7 +13470,7 @@
       <c r="A126" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="7" t="s">
         <v>1420</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -14125,7 +14125,7 @@
       <c r="AE135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="7" t="s">
         <v>1523</v>
       </c>
       <c r="B136" s="1" t="s">
